--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6720C2FE-4319-4D4C-A598-0EB75CED7E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73421D-67AD-4A7C-88A6-47362ECEA818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -166,23 +177,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>固定のメッセージを返す</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>どのHTTPメソッドでも動作する</t>
-    <rPh sb="12" eb="14">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>存在しないURLではエラーを返す。</t>
     <rPh sb="0" eb="2">
       <t>ソンザイ</t>
@@ -266,16 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>業務開始前</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>カイシマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>既に取引実行中</t>
     <rPh sb="0" eb="1">
       <t>スデ</t>
@@ -285,6 +269,152 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ジッコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固定のメッセージを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どのHTTPメソッドでも動作する。</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務状態が "開局" でない場合はエラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務状態</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Preference に保持される開局時刻、開局状態が更新される。</t>
+    <rPh sb="12" eb="14">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カイキョクジョウタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その開局状態は "opened" となる。</t>
+    <rPh sb="2" eb="6">
+      <t>カイキョクジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間経過</t>
+    <rPh sb="0" eb="4">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>規定時刻到達で開局状態が "expired" となる。</t>
+    <rPh sb="0" eb="4">
+      <t>キテイジコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カイキョクジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのエラーの内容は [ status code : 400 , error code : INVALID_OPEN_STATUS ]</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"...自動で再開局" の設定がONなら、規定時間到達で再開局が行われる</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>キテイジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>サイカイキョク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"...自動で再開局" の設定がOFFなら、再開局は実行されない</t>
+    <rPh sb="4" eb="6">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>サイカイキョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -620,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -633,8 +763,8 @@
     <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -648,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -671,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -688,10 +818,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>45895</v>
@@ -711,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>45895</v>
@@ -734,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -757,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
         <v>45895</v>
@@ -780,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -797,16 +927,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>45895</v>
@@ -820,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -843,29 +973,203 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="1" t="s">
+      <c r="F15" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73421D-67AD-4A7C-88A6-47362ECEA818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA2AF6-F135-48AC-A6E5-C2C76E9990C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -260,19 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>既に取引実行中</t>
-    <rPh sb="0" eb="1">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジッコウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>固定のメッセージを返す。</t>
     <rPh sb="0" eb="2">
       <t>コテイ</t>
@@ -415,6 +402,42 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既に取引実行中ならエラーを返す。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのエラーの内容は [ status code : 409 , error code : TRANSACTION_IN_PROGRESS ]</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB: transactions が新規登録される。状態は "processing"</t>
+    <rPh sb="18" eb="20">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -750,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -927,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -936,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
         <v>45895</v>
@@ -950,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -959,7 +982,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -973,16 +996,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>45895</v>
@@ -996,16 +1019,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>45896</v>
@@ -1019,16 +1042,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>45896</v>
@@ -1054,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <v>45895</v>
@@ -1077,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2">
         <v>45895</v>
@@ -1120,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2">
         <v>45896</v>
@@ -1146,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2">
         <v>45896</v>
@@ -1169,7 +1192,59 @@
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA2AF6-F135-48AC-A6E5-C2C76E9990C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121841B-B8FA-4CBA-9EA1-CD90FC74E508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -187,20 +187,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのエラーの内容は [ status code : 400 , error code : NOT_ACTIVATED ]</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>そのエラーの内容は [ status code : 404 , error code : NOT_FOUND ]</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>決済系：決済実行</t>
     <rPh sb="0" eb="2">
       <t>ケッサイ</t>
@@ -322,13 +308,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>その開局状態は "opened" となる。</t>
-    <rPh sb="2" eb="6">
-      <t>カイキョクジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>時間経過</t>
     <rPh sb="0" eb="4">
       <t>ジカンケイカ</t>
@@ -349,13 +328,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのエラーの内容は [ status code : 400 , error code : INVALID_OPEN_STATUS ]</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"...自動で再開局" の設定がONなら、規定時間到達で再開局が行われる</t>
     <rPh sb="4" eb="6">
       <t>ジドウ</t>
@@ -422,22 +394,254 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのエラーの内容は [ status code : 409 , error code : TRANSACTION_IN_PROGRESS ]</t>
-    <rPh sb="6" eb="8">
+    <t>待ち画面表示時に DB: transactions が新規登録される。状態は "processing"</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払が成功すると DB: history_slips が新規登録される。</t>
+    <rPh sb="2" eb="4">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払が成功すると DB: history_uris が新規登録される。※ 売上データ送信で削除されるためそれ以前に確認</t>
+    <rPh sb="2" eb="4">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払が成功すると DB: transactions が更新される。状態は "completed"。history_slips と紐づく。</t>
+    <rPh sb="2" eb="4">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払が失敗すると  DB: transactions が更新される。状態は "failed"。</t>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     オーソリ送信以前の失敗では DB: history_slips, DB: history_urls は作成されない。</t>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     オーソリ以降の失敗では DB: history_slips, DB: history_urls は作成される。</t>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   そのエラーの内容は [ status code : 404 , error code : NOT_FOUND ]</t>
+    <rPh sb="9" eb="11">
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DB: transactions が新規登録される。状態は "processing"</t>
-    <rPh sb="18" eb="20">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウタイ</t>
+    <t xml:space="preserve">   そのエラーの内容は [ status code : 400 , error code : NOT_ACTIVATED ]</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  その開局状態は "opened" となる。</t>
+    <rPh sb="4" eb="8">
+      <t>カイキョクジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払がタイムアウトすると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払がUIからキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使えない金種が指定された場合、エラーを返す。</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 409 , error code : TRANSACTION_IN_PROGRESS ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : PAYMENT_METHOD_UNAVAILABLE ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_OPEN_STATUS ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文重複キーが同じものを指定された場合、エラーを返す。</t>
+    <rPh sb="0" eb="4">
+      <t>デンブンチョウフク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : TRANSACTION_EXECUTED ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  売上データがセンター送信される。</t>
+    <rPh sb="2" eb="4">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  PIN入力画面でキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  PIN入力画面でタイムアウトすると  DB: transactions が更新される。状態は "failed"。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -773,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -801,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -824,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -841,7 +1045,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -864,10 +1068,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2">
         <v>45895</v>
@@ -887,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -910,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
         <v>45895</v>
@@ -933,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -950,16 +1154,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>45895</v>
@@ -973,16 +1177,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -996,16 +1200,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2">
         <v>45895</v>
@@ -1019,16 +1223,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2">
         <v>45896</v>
@@ -1042,16 +1246,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>45896</v>
@@ -1074,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2">
         <v>45895</v>
@@ -1097,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>45895</v>
@@ -1114,16 +1318,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F17" s="2">
         <v>45895</v>
@@ -1137,16 +1341,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
         <v>45896</v>
@@ -1160,19 +1364,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1183,19 +1387,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1206,44 +1410,360 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="2">
         <v>45896</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121841B-B8FA-4CBA-9EA1-CD90FC74E508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F861FD-28B0-4AA3-9A9B-85A96B16E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="261">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -644,13 +645,655 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>idempotencyKey</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>transactionAt</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>dataMethod</t>
+  </si>
+  <si>
+    <t>historySlipId</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>2025-08-28T17:00:44Z</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"6","arc":"00","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>20250828170044</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>transactions</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pos_send</t>
+  </si>
+  <si>
+    <t>car_id</t>
+  </si>
+  <si>
+    <t>driver_id</t>
+  </si>
+  <si>
+    <t>term_id</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>trans_brand</t>
+  </si>
+  <si>
+    <t>trans_date</t>
+  </si>
+  <si>
+    <t>old_trans_date</t>
+  </si>
+  <si>
+    <t>trans_type</t>
+  </si>
+  <si>
+    <t>trans_result</t>
+  </si>
+  <si>
+    <t>trans_result_detail</t>
+  </si>
+  <si>
+    <t>term_sequence</t>
+  </si>
+  <si>
+    <t>old_term_sequence</t>
+  </si>
+  <si>
+    <t>trans_id</t>
+  </si>
+  <si>
+    <t>old_trans_id</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>installment</t>
+  </si>
+  <si>
+    <t>trans_amount</t>
+  </si>
+  <si>
+    <t>trans_specified_amount</t>
+  </si>
+  <si>
+    <t>trans_meter_amount</t>
+  </si>
+  <si>
+    <t>trans_adj_amount</t>
+  </si>
+  <si>
+    <t>trans_cash_together_amount</t>
+  </si>
+  <si>
+    <t>trans_other_amount_one_type</t>
+  </si>
+  <si>
+    <t>trans_other_amount_one</t>
+  </si>
+  <si>
+    <t>trans_other_amount_two_type</t>
+  </si>
+  <si>
+    <t>trans_other_amount_two</t>
+  </si>
+  <si>
+    <t>trans_before_balance</t>
+  </si>
+  <si>
+    <t>trans_after_balance</t>
+  </si>
+  <si>
+    <t>trans_time</t>
+  </si>
+  <si>
+    <t>trans_input_pin_time</t>
+  </si>
+  <si>
+    <t>term_latitude</t>
+  </si>
+  <si>
+    <t>term_longitude</t>
+  </si>
+  <si>
+    <t>term_network_type</t>
+  </si>
+  <si>
+    <t>term_radio_level</t>
+  </si>
+  <si>
+    <t>encrypt_type</t>
+  </si>
+  <si>
+    <t>unionpay_send_date</t>
+  </si>
+  <si>
+    <t>unionpay_proc_number</t>
+  </si>
+  <si>
+    <t>old_unionpay_send_date</t>
+  </si>
+  <si>
+    <t>old_unionpay_proc_number</t>
+  </si>
+  <si>
+    <t>credit_acq_id</t>
+  </si>
+  <si>
+    <t>credit_ms_ic</t>
+  </si>
+  <si>
+    <t>credit_on_off</t>
+  </si>
+  <si>
+    <t>credit_chip_cc</t>
+  </si>
+  <si>
+    <t>credit_forced_online</t>
+  </si>
+  <si>
+    <t>credit_forced_approval</t>
+  </si>
+  <si>
+    <t>credit_commodity_code</t>
+  </si>
+  <si>
+    <t>credit_aid</t>
+  </si>
+  <si>
+    <t>credit_entry_mode</t>
+  </si>
+  <si>
+    <t>credit_pan_sequence_number</t>
+  </si>
+  <si>
+    <t>credit_icterm_flag</t>
+  </si>
+  <si>
+    <t>credit_brand_id</t>
+  </si>
+  <si>
+    <t>credit_key_type</t>
+  </si>
+  <si>
+    <t>credit_key_ver</t>
+  </si>
+  <si>
+    <t>credit_encryption_data</t>
+  </si>
+  <si>
+    <t>ic_err_code</t>
+  </si>
+  <si>
+    <t>ic_idm</t>
+  </si>
+  <si>
+    <t>ic_sprwid</t>
+  </si>
+  <si>
+    <t>ic_statement_id</t>
+  </si>
+  <si>
+    <t>ic_sequence</t>
+  </si>
+  <si>
+    <t>ic_sflog_id</t>
+  </si>
+  <si>
+    <t>ic_old_statement_id</t>
+  </si>
+  <si>
+    <t>ic_old_sflog_id</t>
+  </si>
+  <si>
+    <t>id_slip_number</t>
+  </si>
+  <si>
+    <t>id_old_slip_number</t>
+  </si>
+  <si>
+    <t>id_error_code</t>
+  </si>
+  <si>
+    <t>id_term_ident_id</t>
+  </si>
+  <si>
+    <t>id_sequence_number</t>
+  </si>
+  <si>
+    <t>id_recognition_number</t>
+  </si>
+  <si>
+    <t>waon_slip_number</t>
+  </si>
+  <si>
+    <t>waon_old_slip_number</t>
+  </si>
+  <si>
+    <t>waon_err_code</t>
+  </si>
+  <si>
+    <t>waon_idm</t>
+  </si>
+  <si>
+    <t>waon_term_ident_id</t>
+  </si>
+  <si>
+    <t>waon_card_through_num</t>
+  </si>
+  <si>
+    <t>waon_point_trade_value</t>
+  </si>
+  <si>
+    <t>waon_point_grant_type</t>
+  </si>
+  <si>
+    <t>waon_add_point_total</t>
+  </si>
+  <si>
+    <t>waon_total_point</t>
+  </si>
+  <si>
+    <t>nanaco_slip_number</t>
+  </si>
+  <si>
+    <t>nanaco_err_code</t>
+  </si>
+  <si>
+    <t>nanaco_card_trans_number</t>
+  </si>
+  <si>
+    <t>nanaco_term_ident_id</t>
+  </si>
+  <si>
+    <t>rakuten_edy_err_code</t>
+  </si>
+  <si>
+    <t>rakuten_edy_trans_number</t>
+  </si>
+  <si>
+    <t>rakuten_edy_card_trans_number</t>
+  </si>
+  <si>
+    <t>rakuten_edy_term_ident_id</t>
+  </si>
+  <si>
+    <t>quicpay_slip_number</t>
+  </si>
+  <si>
+    <t>quicpay_old_slip_number</t>
+  </si>
+  <si>
+    <t>quicpay_err_code</t>
+  </si>
+  <si>
+    <t>quicpay_term_ident_id</t>
+  </si>
+  <si>
+    <t>quicpay_dealings_through_number</t>
+  </si>
+  <si>
+    <t>codetrans_order_id</t>
+  </si>
+  <si>
+    <t>codetrans_old_order_id</t>
+  </si>
+  <si>
+    <t>codetrans_pay_type_code</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>クレジット</t>
+  </si>
+  <si>
+    <t>393C5EC08F5417FAD74A38DABA37AACC</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>A000000025010402</t>
+  </si>
+  <si>
+    <t>5B343C1ECE7352C3FBDD1B7E407CA7C32ACADC3064D1392E674C46D6140F4E371A85DB7AD31F24422FD2356FF3E99569CAB0372569797ED644669053345CFF021242023FBE8595AB37C5D900FD035DC8BE46C0E6621E4CA09F17EB7DD40A5CF16AF34347663B3DEF68FC6F5D2CFA3107B0339D45FB1B6348FD90AF1C12E2781444B4F4F12C5B88A9C455B694E0DEADF53015512BD68103F208764CB79B5F5220E8AA24095A13342DE56A1CD7245658882DBF4F63BED6EF0B7BB23A4A8819CCF6D1BCDCB133EDCE1CB4F9E7F2B932911452DA734DF552A77600D4651B388DCEB7FE0A0FE5EE1A06C6C83C8812329BC70FE78689BC8AA71E658AC406B6F8B956384BFE6D476BECF47E83BB18AF84FB4001667F0397414CAC7C57BDCAAF53D07EA94CC3ADA9ED3CB48FEF6C91A351B3B85D789BC68AAAF8D2138D40F1F4D533F913B8E72C9FB641FC235EF2F6EF9D7DF6E9ECFE6D1D18E158BFF9DFC9F8C721D37030447FE9E4C4EA4CA6CB9E996C9222EC26EA7DBB33652003008E63221FB8157B</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>3080902100007</t>
+  </si>
+  <si>
+    <t>2025/08/28 17:01:03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>21284</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>33.22932968</t>
+  </si>
+  <si>
+    <t>131.60259217</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20032</t>
+  </si>
+  <si>
+    <t>0000270</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>history_uris</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>history_slips</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>trans_type_code</t>
+  </si>
+  <si>
+    <t>print_cnt</t>
+  </si>
+  <si>
+    <t>old_aggregate_order</t>
+  </si>
+  <si>
+    <t>cancel_flg</t>
+  </si>
+  <si>
+    <t>merchant_name</t>
+  </si>
+  <si>
+    <t>merchant_office</t>
+  </si>
+  <si>
+    <t>merchant_telnumber</t>
+  </si>
+  <si>
+    <t>card_company</t>
+  </si>
+  <si>
+    <t>card_id_merchant</t>
+  </si>
+  <si>
+    <t>card_id_customer</t>
+  </si>
+  <si>
+    <t>card_exp_date</t>
+  </si>
+  <si>
+    <t>card_trans_number</t>
+  </si>
+  <si>
+    <t>edy_trans_number</t>
+  </si>
+  <si>
+    <t>slip_number</t>
+  </si>
+  <si>
+    <t>old_slip_number</t>
+  </si>
+  <si>
+    <t>auth_id</t>
+  </si>
+  <si>
+    <t>auth_sequence_number</t>
+  </si>
+  <si>
+    <t>commodity_code</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>point_grant_type</t>
+  </si>
+  <si>
+    <t>point_grant_msg_one</t>
+  </si>
+  <si>
+    <t>point_grant_msg_two</t>
+  </si>
+  <si>
+    <t>unique_id</t>
+  </si>
+  <si>
+    <t>term_ident_id</t>
+  </si>
+  <si>
+    <t>credit_type</t>
+  </si>
+  <si>
+    <t>credit_arc</t>
+  </si>
+  <si>
+    <t>credit_apl</t>
+  </si>
+  <si>
+    <t>credit_signature_flg</t>
+  </si>
+  <si>
+    <t>codetrans_pay_type_name</t>
+  </si>
+  <si>
+    <t>free_count_one</t>
+  </si>
+  <si>
+    <t>free_count_two</t>
+  </si>
+  <si>
+    <t>credit_kid</t>
+  </si>
+  <si>
+    <t>trans_complete_amount</t>
+  </si>
+  <si>
+    <t>printing_authid</t>
+  </si>
+  <si>
+    <t>transaction_terminal_type</t>
+  </si>
+  <si>
+    <t>card_category</t>
+  </si>
+  <si>
+    <t>card_brand_code</t>
+  </si>
+  <si>
+    <t>card_brand_name</t>
+  </si>
+  <si>
+    <t>purchased_ticket_deal_id</t>
+  </si>
+  <si>
+    <t>trip_reservation_id</t>
+  </si>
+  <si>
+    <t>send_cancel_purchased_ticket</t>
+  </si>
+  <si>
+    <t>watari_point</t>
+  </si>
+  <si>
+    <t>watari_sum_point</t>
+  </si>
+  <si>
+    <t>watari_calidity_period</t>
+  </si>
+  <si>
+    <t>あんどう支社</t>
+  </si>
+  <si>
+    <t>あんどう営業所A</t>
+  </si>
+  <si>
+    <t>000-0000-0000</t>
+  </si>
+  <si>
+    <t>AMEX CARD</t>
+  </si>
+  <si>
+    <t>XX/XX</t>
+  </si>
+  <si>
+    <t>一括</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>成功データ</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250828171316</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>2025-08-28T17:13:16Z</t>
+  </si>
+  <si>
+    <t>{"aid":"A000000025010402","apl":"AMEX","approval_no":"","arc":"1","brand":"クレジット","card_company":"AMEX CARD","card_exp_date":"XX/XX","card_no":"377784*****0903","credit_type":"IC"}</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>失敗データ（オーソリNG)</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025/08/28 17:13:29</t>
+  </si>
+  <si>
+    <t>12913</t>
+  </si>
+  <si>
+    <t>3120</t>
+  </si>
+  <si>
+    <t>1C3D87B684F4F6EC188F0E1C28F44AC90891A152CBED16CBB68D42D5F5D36657F4ECCC3D9F7E7C6E38EED0D20DECC55CCB8E9F41DB48BE8AE14338410D83D5D7DB617B7362AD1265BBBA50D851B0A32271ADE60511FD4462C1642B713CED53ECE6E068F9972B90AEA8CCB380605866700535803423C7DB1B7568C1C62C96DE4407A3552585820BB9FF2901C39743E12B50EBF135BAF7CD0620AA868BF88DE342AA1C245EBF759104C6E9687D1255A6E1DF593B65634E284AF198A86F2EE8B6813A44413E0B872FAE2C74911F22228A5177E4EC7696140F9E731D6C2BB6F82980EA4E3C1F54DD367A298DE8522F1F4E879F85C6F5CEF46F31600D88C4F2269C19CACBD0603FC096FC13BC8EB50450CD71389AD0BD27508005C00D535A92B94CA93F686464B71B3B5CA10F5BB3092E63E205BD8C11DF795698A2818B5858BA00711598BA724ECBBFA16F94710BBE1FAC3A51C660E9D145A47705E4ABCAD49FF3E5446EAB56293EFB019F2880ED9B4241500187FC27F2D75BB82F071D04C4C00D2E</t>
+  </si>
+  <si>
+    <t>失敗データ（タイムアウト等)</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20250828171759</t>
+  </si>
+  <si>
+    <t>1281</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>2025-08-28T17:17:59Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,16 +1315,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -689,14 +1346,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -979,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -1562,6 +2239,18 @@
       </c>
     </row>
     <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1573,6 +2262,18 @@
       </c>
     </row>
     <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1766,6 +2467,1430 @@
       <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B33448-8806-4D52-9736-085FE00DFD34}">
+  <dimension ref="A2:FX6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="24.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="197" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="3"/>
+    <col min="12" max="12" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" style="3"/>
+    <col min="27" max="27" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="255.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="25.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="22.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="27.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="33.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="27.58203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="21.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="25.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="17.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="34.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="19.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="109" width="8.6640625" style="3"/>
+    <col min="110" max="110" width="13.58203125" style="3" customWidth="1"/>
+    <col min="111" max="16384" width="8.6640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:180">
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:180">
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="CO3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="CR3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="CS3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CT3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CU3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="CV3" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="CW3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="CX3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="CY3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="CZ3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="DA3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="DB3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="DC3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="DE3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="DF3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="DG3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="DH3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DI3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="DJ3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="DK3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="DL3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="DN3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="DP3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="DQ3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="DR3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="DS3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="DT3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="DU3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="DV3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="DW3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="DX3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="DZ3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="EB3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="ED3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="EE3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="EF3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="EG3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="EH3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="EI3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="EJ3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="EK3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="EL3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="EM3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="EN3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EP3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="EQ3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="ER3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="ES3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="ET3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="EU3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="EV3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="EW3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="EX3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="EY3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="EZ3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="FA3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="FB3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="FC3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="FD3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="FE3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="FF3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="FG3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="FH3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="FJ3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="FK3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="FL3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="FM3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="FN3" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="FO3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="FP3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="FQ3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="FR3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="FS3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="FT3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="FU3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="FV3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="FW3" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="FX3" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:180">
+      <c r="A4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DE4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="DF4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="DG4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DH4" s="7"/>
+      <c r="DI4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DJ4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DK4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DM4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="DN4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="DO4" s="7"/>
+      <c r="DP4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="DQ4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="DT4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DU4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DV4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="DW4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="DX4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="DY4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="DZ4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="EA4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="EB4" s="7"/>
+      <c r="EC4" s="7"/>
+      <c r="ED4" s="7"/>
+      <c r="EE4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="EF4" s="7"/>
+      <c r="EG4" s="7"/>
+      <c r="EH4" s="7"/>
+      <c r="EI4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="EK4" s="7"/>
+      <c r="EL4" s="7"/>
+      <c r="EM4" s="7"/>
+      <c r="EN4" s="7"/>
+      <c r="EO4" s="7"/>
+      <c r="EP4" s="7"/>
+      <c r="EQ4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="ER4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="ES4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="ET4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="EU4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EV4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EW4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EX4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EZ4" s="7"/>
+      <c r="FA4" s="7"/>
+      <c r="FB4" s="7"/>
+      <c r="FC4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="FD4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="FE4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="FF4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="FG4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="FH4" s="7"/>
+      <c r="FI4" s="7"/>
+      <c r="FJ4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="FK4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="FL4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="FM4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="FN4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="FO4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="FP4" s="7"/>
+      <c r="FQ4" s="7"/>
+      <c r="FR4" s="7"/>
+      <c r="FS4" s="7"/>
+      <c r="FT4" s="7"/>
+      <c r="FU4" s="7"/>
+      <c r="FV4" s="7"/>
+      <c r="FW4" s="7"/>
+      <c r="FX4" s="7"/>
+    </row>
+    <row r="5" spans="1:180">
+      <c r="A5" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="5"/>
+      <c r="CQ5" s="5"/>
+      <c r="CR5" s="5"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="5"/>
+      <c r="CU5" s="5"/>
+      <c r="CV5" s="5"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="5"/>
+      <c r="CY5" s="5"/>
+      <c r="CZ5" s="5"/>
+      <c r="DA5" s="5"/>
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DE5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="DF5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="DG5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DH5" s="5"/>
+      <c r="DI5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DK5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DM5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DN5" s="5"/>
+      <c r="DO5" s="5"/>
+      <c r="DP5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="DQ5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="DR5" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DT5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DU5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="DV5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="DW5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="DX5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="DY5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="DZ5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="EA5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="EB5" s="5"/>
+      <c r="EC5" s="5"/>
+      <c r="ED5" s="5"/>
+      <c r="EE5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="EF5" s="5"/>
+      <c r="EG5" s="5"/>
+      <c r="EH5" s="5"/>
+      <c r="EI5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="EJ5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="EK5" s="5"/>
+      <c r="EL5" s="5"/>
+      <c r="EM5" s="5"/>
+      <c r="EN5" s="5"/>
+      <c r="EO5" s="5"/>
+      <c r="EP5" s="5"/>
+      <c r="EQ5" s="5"/>
+      <c r="ER5" s="5"/>
+      <c r="ES5" s="5"/>
+      <c r="ET5" s="5"/>
+      <c r="EU5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="EV5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="EW5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="EX5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="EY5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="EZ5" s="5"/>
+      <c r="FA5" s="5"/>
+      <c r="FB5" s="5"/>
+      <c r="FC5" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="FD5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="FE5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="FF5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="FG5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="FH5" s="5"/>
+      <c r="FI5" s="5"/>
+      <c r="FJ5" s="5"/>
+      <c r="FK5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="FL5" s="5"/>
+      <c r="FM5" s="5"/>
+      <c r="FN5" s="5"/>
+      <c r="FO5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="FP5" s="5"/>
+      <c r="FQ5" s="5"/>
+      <c r="FR5" s="5"/>
+      <c r="FS5" s="5"/>
+      <c r="FT5" s="5"/>
+      <c r="FU5" s="5"/>
+      <c r="FV5" s="5"/>
+      <c r="FW5" s="5"/>
+      <c r="FX5" s="5"/>
+    </row>
+    <row r="6" spans="1:180">
+      <c r="A6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A14D72-5CC0-4E34-B85F-4D86F8687E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C193771-CE08-470F-823F-A2848DE17B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="78">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -616,16 +617,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">  売上データがセンター送信される。</t>
-    <rPh sb="2" eb="4">
-      <t>ウリアゲ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">  PIN入力画面でキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
@@ -642,6 +633,364 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  売上データ（成功）がセンター送信される。</t>
+    <rPh sb="2" eb="4">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  売上データ（失敗）がセンター送信される。</t>
+    <rPh sb="2" eb="4">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（クレジット）</t>
+  </si>
+  <si>
+    <t>決済系：決済取得</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定 id に該当するデータがない場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : TRANSACTION_NOT_FOUND ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引開始時 （未完） の場合 状態 : "processing" が確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引開始時 （成功） の場合 状態 : "completed" が確認できる</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済系：決済取消</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消できないブランドの場合、エラーを返す。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_TRANSACTION_TYPE ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払でない取引が指定された場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : REFUND_NOT_SUPPORTED ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了でない取引が指定された場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : PAYMENT_NOT_COMPLETED ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレジット処理時に取消待ち画面を表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不具合検出数：</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通番が初期化される</t>
+    <rPh sb="0" eb="2">
+      <t>ツウバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>拒否売上が上がらない</t>
+    <rPh sb="0" eb="2">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージが妥当でない</t>
+    <rPh sb="9" eb="11">
+      <t>ダトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>looper が重複実行される</t>
+    <rPh sb="8" eb="10">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>待ち画面表示時に DB: transactions が新規登録される。状態は "processing"、種別は "cancel"</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別媒体での取り消しはできない。</t>
+    <rPh sb="0" eb="3">
+      <t>ベツバイタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  取消がタイムアウトすると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  取消が成功すると DB: history_slips が新規登録される。</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>シンキトウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -673,15 +1022,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -689,14 +1044,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -977,17 +1350,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G37"/>
+  <dimension ref="A2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -1275,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -1298,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -1314,27 +1687,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -1344,16 +1697,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1367,16 +1720,16 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1390,13 +1743,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2">
         <v>45897</v>
@@ -1413,15 +1766,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
@@ -1431,16 +1789,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1454,16 +1812,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1477,13 +1835,13 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2">
         <v>45897</v>
@@ -1500,13 +1858,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2">
         <v>45897</v>
@@ -1523,13 +1881,13 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2">
         <v>45897</v>
@@ -1546,13 +1904,13 @@
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2">
         <v>45897</v>
@@ -1569,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2">
         <v>45897</v>
@@ -1592,13 +1950,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F29" s="2">
         <v>45897</v>
@@ -1615,16 +1973,16 @@
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -1638,16 +1996,16 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1667,7 +2025,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2">
         <v>45896</v>
@@ -1690,7 +2048,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2">
         <v>45896</v>
@@ -1713,10 +2071,10 @@
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1736,10 +2094,10 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1759,7 +2117,7 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2">
         <v>45897</v>
@@ -1782,13 +2140,670 @@
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2">
         <v>45897</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="E48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3">
+        <f>COUNTA(D1:D4)</f>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C193771-CE08-470F-823F-A2848DE17B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E40900-FFFD-4C76-9E57-663905E8BD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="79">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -991,6 +991,19 @@
     </rPh>
     <rPh sb="30" eb="34">
       <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一ネットワークの別端末から API をコールできる</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンマツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1350,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G67"/>
+  <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5"/>
@@ -1414,20 +1427,11 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1444,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>45895</v>
@@ -1467,7 +1471,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2">
         <v>45895</v>
@@ -1490,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <v>45895</v>
@@ -1513,7 +1517,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
         <v>45895</v>
@@ -1527,16 +1531,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <v>45895</v>
@@ -1559,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -1576,13 +1580,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2">
         <v>45895</v>
@@ -1605,10 +1609,10 @@
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -1628,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2">
         <v>45896</v>
@@ -1638,30 +1642,30 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="F14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
@@ -1677,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="2">
         <v>45895</v>
@@ -1687,30 +1691,30 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="F17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
@@ -1726,10 +1730,10 @@
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1749,10 +1753,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1772,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2">
         <v>45897</v>
@@ -1795,10 +1799,10 @@
         <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1818,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2">
         <v>45898</v>
@@ -1841,10 +1845,10 @@
         <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -1861,10 +1865,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2">
         <v>45897</v>
@@ -1887,7 +1891,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2">
         <v>45897</v>
@@ -1910,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2">
         <v>45897</v>
@@ -1933,7 +1937,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2">
         <v>45897</v>
@@ -1956,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2">
         <v>45897</v>
@@ -1979,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F30" s="2">
         <v>45897</v>
@@ -2002,7 +2006,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
         <v>45897</v>
@@ -2019,16 +2023,16 @@
         <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F32" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -2048,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F33" s="2">
         <v>45896</v>
@@ -2071,7 +2075,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F34" s="2">
         <v>45896</v>
@@ -2094,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2">
         <v>45896</v>
@@ -2117,10 +2121,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -2140,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2">
         <v>45897</v>
@@ -2163,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2">
         <v>45897</v>
@@ -2186,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2">
         <v>45897</v>
@@ -2196,30 +2200,30 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
@@ -2235,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2">
         <v>45898</v>
@@ -2255,10 +2259,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2">
         <v>45898</v>
@@ -2281,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2">
         <v>45898</v>
@@ -2290,31 +2294,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1">
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="2">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="2">
         <v>45898</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1">
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
@@ -2330,7 +2334,7 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2">
         <v>45898</v>
@@ -2340,26 +2344,31 @@
       </c>
     </row>
     <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="E49" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="F49" s="2"/>
     </row>
@@ -2377,14 +2386,9 @@
         <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
@@ -2400,9 +2404,14 @@
         <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
@@ -2415,17 +2424,12 @@
         <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
@@ -2441,7 +2445,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2">
         <v>45898</v>
@@ -2458,13 +2462,13 @@
         <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F54" s="2">
         <v>45898</v>
@@ -2487,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2">
         <v>45898</v>
@@ -2510,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F56" s="2">
         <v>45898</v>
@@ -2533,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2">
         <v>45898</v>
@@ -2556,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2">
         <v>45898</v>
@@ -2579,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2">
         <v>45898</v>
@@ -2602,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2">
         <v>45898</v>
@@ -2625,7 +2629,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="2">
         <v>45898</v>
@@ -2648,7 +2652,13 @@
         <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2665,7 +2675,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2682,13 +2692,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2705,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F65" s="2">
         <v>45898</v>
@@ -2728,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F66" s="2">
         <v>45898</v>
@@ -2751,12 +2755,35 @@
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="2">
         <v>45898</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E40900-FFFD-4C76-9E57-663905E8BD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F040AF-4E4B-47DB-A04E-D85DE421D81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="不具合" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="81">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1004,6 +1004,23 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユニークIDが保持されていない</t>
+    <rPh sb="7" eb="9">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上が紐づかないことがある</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒモ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1365,19 +1382,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -2795,15 +2812,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2833,6 +2850,16 @@
         <v>73</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F040AF-4E4B-47DB-A04E-D85DE421D81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613AF68-1DD0-4AC5-BA75-3F6C683E969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="83">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1021,6 +1021,17 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Timber.log がでていない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>getDeviceID でエラーが出ている</t>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2812,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2828,8 +2839,8 @@
         <v>69</v>
       </c>
       <c r="B1" s="3">
-        <f>COUNTA(D1:D4)</f>
-        <v>4</v>
+        <f>COUNTA(D1:D10)</f>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -2858,6 +2869,16 @@
     <row r="6" spans="1:4">
       <c r="D6" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A613AF68-1DD0-4AC5-BA75-3F6C683E969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A7A53-B903-46C0-B5F9-05571A46C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="103">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1032,6 +1032,191 @@
     <t>getDeviceID でエラーが出ている</t>
     <rPh sb="17" eb="18">
       <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（QuicPay）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する [全般]</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>API要求後、支払待ち画面を表示する</t>
+    <rPh sb="3" eb="6">
+      <t>ヨウキュウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子マネーエラーの内容がログから追跡できない</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子マネーエラーなのに状態が "processing" のままになる。</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払が失敗すると  DB: transactions が更新される。状態は "failed" 。</t>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払がUIキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  支払がタイムアウトすると  DB: transactions が更新される。状態は "failed" 。</t>
+    <rPh sb="2" eb="4">
+      <t>シハライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  売上データ（処理未了）がセンター送信される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残高照会</t>
+    <rPh sb="0" eb="2">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（QuicPay）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QuicPay は利用できない</t>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"Transaction Screen" という謎の表示がでている</t>
+    <rPh sb="24" eb="25">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応済</t>
+    <rPh sb="0" eb="3">
+      <t>タイオウスミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ものによるので確認中</t>
+    <rPh sb="7" eb="10">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消済の取引が指定された場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : PAYMENT_CANCELD ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1063,7 +1248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,13 +1295,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1391,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G68"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1408,26 +1601,26 @@
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1448,20 +1641,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>2</v>
@@ -1469,20 +1648,11 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1499,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>45895</v>
@@ -1522,7 +1692,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2">
         <v>45895</v>
@@ -1545,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <v>45895</v>
@@ -1568,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2">
         <v>45895</v>
@@ -1582,16 +1752,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -1614,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>45895</v>
@@ -1631,13 +1801,13 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2">
         <v>45895</v>
@@ -1660,10 +1830,10 @@
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -1683,7 +1853,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2">
         <v>45896</v>
@@ -1693,30 +1863,30 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="F15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -1732,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
         <v>45895</v>
@@ -1742,30 +1912,30 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="F18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -1775,13 +1945,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2">
         <v>45896</v>
@@ -1798,16 +1968,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1821,16 +1991,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1844,16 +2014,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1867,16 +2037,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -1890,13 +2060,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2">
         <v>45897</v>
@@ -1913,13 +2083,13 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2">
         <v>45897</v>
@@ -1936,13 +2106,13 @@
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2">
         <v>45897</v>
@@ -1952,27 +2122,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
@@ -1985,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -2008,13 +2158,13 @@
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -2031,10 +2181,10 @@
         <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2">
         <v>45897</v>
@@ -2054,10 +2204,10 @@
         <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2">
         <v>45897</v>
@@ -2074,16 +2224,16 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -2097,16 +2247,16 @@
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -2120,16 +2270,16 @@
         <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -2143,16 +2293,16 @@
         <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -2166,13 +2316,13 @@
         <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2">
         <v>45897</v>
@@ -2189,13 +2339,13 @@
         <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2">
         <v>45897</v>
@@ -2212,13 +2362,13 @@
         <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2">
         <v>45897</v>
@@ -2235,13 +2385,13 @@
         <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2">
         <v>45897</v>
@@ -2251,23 +2401,43 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="F41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2">
         <v>45898</v>
@@ -2277,46 +2447,26 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F44" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -2327,45 +2477,65 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1">
-      <c r="F46" s="5"/>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -2376,66 +2546,88 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>13</v>
@@ -2446,80 +2638,63 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45898</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1">
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2">
         <v>45898</v>
@@ -2533,16 +2708,16 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2">
         <v>45898</v>
@@ -2556,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2565,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2">
         <v>45898</v>
@@ -2579,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2588,7 +2763,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2">
         <v>45898</v>
@@ -2597,28 +2772,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="59" spans="1:7" s="4" customFormat="1">
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
@@ -2631,10 +2786,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2">
         <v>45898</v>
@@ -2654,10 +2809,10 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2">
         <v>45898</v>
@@ -2667,27 +2822,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
@@ -2703,7 +2841,13 @@
         <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2720,7 +2864,13 @@
         <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2737,7 +2887,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2">
         <v>45898</v>
@@ -2760,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F66" s="2">
         <v>45898</v>
@@ -2783,7 +2933,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2">
         <v>45898</v>
@@ -2806,12 +2956,358 @@
         <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F68" s="2">
         <v>45898</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2823,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2834,51 +3330,102 @@
     <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D10)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="D2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="D3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="D4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="D5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="D6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="D7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="D8" t="s">
         <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A7A53-B903-46C0-B5F9-05571A46C647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD45AC4-1922-4D0E-8988-26563E82D4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="119">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -956,45 +956,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>別媒体での取り消しはできない。</t>
-    <rPh sb="0" eb="3">
-      <t>ベツバイタイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  取消がタイムアウトすると  DB: transactions が更新される。状態は "stopped"。</t>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  取消が成功すると DB: history_slips が新規登録される。</t>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>同一ネットワークの別端末から API をコールできる</t>
     <rPh sb="0" eb="2">
       <t>ドウイツ</t>
@@ -1099,34 +1060,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">  支払が失敗すると  DB: transactions が更新される。状態は "failed" 。</t>
-    <rPh sb="2" eb="4">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  支払がUIキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
-    <rPh sb="2" eb="4">
-      <t>シハライ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  支払がタイムアウトすると  DB: transactions が更新される。状態は "failed" 。</t>
-    <rPh sb="2" eb="4">
-      <t>シハライ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  売上データ（処理未了）がセンター送信される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>保留</t>
     <rPh sb="0" eb="2">
       <t>ホリュウ</t>
@@ -1217,6 +1150,181 @@
     <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : PAYMENT_CANCELD ]</t>
     <rPh sb="8" eb="10">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消が成功すると DB: history_slips が新規登録される。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消がタイムアウトすると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消がタイムアウトすると  DB: transactions が更新される。状態は "failed"。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消が失敗すると  DB: transactions が更新される。状態は "failed" 。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払がUIからキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+  </si>
+  <si>
+    <t>売上データ（成功）がセンター送信される。</t>
+  </si>
+  <si>
+    <t>売上データ（失敗）がセンター送信される。</t>
+  </si>
+  <si>
+    <t>取消がUIからキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上データ（処理未了）がセンター送信される。</t>
+  </si>
+  <si>
+    <t>支払が成功すると DB: history_slips が新規登録される。</t>
+  </si>
+  <si>
+    <t>支払が成功すると DB: history_uris が新規登録される。※ 売上データ送信で削除されるためそれ以前に確認</t>
+  </si>
+  <si>
+    <t>支払が成功すると DB: transactions が更新される。状態は "completed"。history_slips と紐づく。</t>
+  </si>
+  <si>
+    <t>支払が失敗すると  DB: transactions が更新される。状態は "failed" 。</t>
+  </si>
+  <si>
+    <t>支払がタイムアウトすると  DB: transactions が更新される。状態は "failed" 。</t>
+  </si>
+  <si>
+    <t>支払がUIキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+  </si>
+  <si>
+    <t>取消売上データ（成功）がセンター送信される。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消売上データ（処理未了）がセンター送信される。</t>
+    <rPh sb="8" eb="12">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済系：決済の中断</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 404 , error code : TRANSACTION_NOT_FOUND ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理中の取引ではない場合、エラーを返す。</t>
+    <rPh sb="0" eb="3">
+      <t>ショリチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : TRANSACTION_NOT_IN_PROGRESS ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払処理に対して中断できる</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引処理に対して中断できる</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウダン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1584,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1652,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1945,7 +2053,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1968,7 +2076,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -1991,7 +2099,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
@@ -2014,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -2037,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -2060,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
@@ -2083,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
@@ -2106,7 +2214,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -2457,13 +2565,13 @@
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" s="2">
         <v>45911</v>
@@ -2480,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>19</v>
@@ -2503,13 +2611,13 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2">
         <v>45911</v>
@@ -2526,13 +2634,13 @@
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2">
         <v>45911</v>
@@ -2549,13 +2657,13 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2">
         <v>45911</v>
@@ -2572,13 +2680,13 @@
         <v>17</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2">
         <v>45911</v>
@@ -2595,13 +2703,13 @@
         <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2">
         <v>45911</v>
@@ -2618,13 +2726,13 @@
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F51" s="2">
         <v>45911</v>
@@ -2641,13 +2749,13 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F52" s="2">
         <v>45911</v>
@@ -2664,17 +2772,17 @@
         <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1">
@@ -2763,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F58" s="2">
         <v>45898</v>
@@ -2822,10 +2930,27 @@
       </c>
     </row>
     <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
@@ -2841,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2">
         <v>45898</v>
@@ -2864,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F64" s="2">
         <v>45898</v>
@@ -2887,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2">
         <v>45898</v>
@@ -2910,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2">
         <v>45898</v>
@@ -2933,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2">
         <v>45898</v>
@@ -2956,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2">
         <v>45898</v>
@@ -2979,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2">
         <v>45898</v>
@@ -3002,13 +3127,7 @@
         <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3025,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3042,7 +3161,13 @@
         <v>20</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3059,7 +3184,7 @@
         <v>20</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2">
         <v>45898</v>
@@ -3082,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2">
         <v>45898</v>
@@ -3105,7 +3230,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2">
         <v>45898</v>
@@ -3128,10 +3253,10 @@
         <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
@@ -3151,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2">
         <v>45911</v>
@@ -3168,20 +3293,15 @@
         <v>60</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
@@ -3194,12 +3314,17 @@
         <v>54</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
@@ -3215,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2">
         <v>45898</v>
@@ -3235,10 +3360,10 @@
         <v>54</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2">
         <v>45898</v>
@@ -3261,14 +3386,9 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F82" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
@@ -3278,36 +3398,293 @@
         <v>60</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F87" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="4" customFormat="1">
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F97" s="2">
         <v>45898</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3322,7 +3699,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3342,7 +3719,7 @@
         <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3350,7 +3727,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3358,7 +3735,7 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3366,66 +3743,66 @@
         <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="D6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="D8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="C9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD45AC4-1922-4D0E-8988-26563E82D4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF84EF-411A-4034-8A0F-E720E4F5FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF84EF-411A-4034-8A0F-E720E4F5FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B0E8A1-1920-4567-8006-1AC73AB47100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="119">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1118,13 +1118,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>中</t>
-    <rPh sb="0" eb="1">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>取消済の取引が指定された場合、エラーを返す。</t>
     <rPh sb="0" eb="2">
       <t>トリケシ</t>
@@ -1325,6 +1318,13 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QRエラーなのに状態が "processing" のままになる。</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1694,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2617,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2">
         <v>45911</v>
@@ -2640,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2">
         <v>45911</v>
@@ -2663,7 +2663,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2">
         <v>45911</v>
@@ -2686,7 +2686,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2">
         <v>45911</v>
@@ -2709,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2">
         <v>45911</v>
@@ -2732,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2">
         <v>45911</v>
@@ -2755,7 +2755,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="2">
         <v>45911</v>
@@ -2778,7 +2778,7 @@
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
@@ -2871,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="2">
         <v>45898</v>
@@ -3253,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2">
         <v>45911</v>
@@ -3276,7 +3276,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2">
         <v>45911</v>
@@ -3299,7 +3299,7 @@
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3317,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2">
         <v>45898</v>
@@ -3340,7 +3340,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2">
         <v>45898</v>
@@ -3363,7 +3363,7 @@
         <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F81" s="2">
         <v>45898</v>
@@ -3386,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2"/>
     </row>
@@ -3404,7 +3404,7 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2">
         <v>45911</v>
@@ -3427,7 +3427,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2">
         <v>45911</v>
@@ -3450,7 +3450,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2">
         <v>45911</v>
@@ -3473,7 +3473,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2">
         <v>45911</v>
@@ -3496,7 +3496,7 @@
         <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2">
         <v>45911</v>
@@ -3519,7 +3519,7 @@
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="1" t="s">
@@ -3534,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3543,7 +3543,7 @@
         <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2">
         <v>45911</v>
@@ -3557,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3566,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2"/>
     </row>
@@ -3575,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
@@ -3607,7 +3607,7 @@
         <v>20</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F93" s="2">
         <v>45911</v>
@@ -3621,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
@@ -3630,7 +3630,7 @@
         <v>20</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2">
         <v>45911</v>
@@ -3644,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
@@ -3653,7 +3653,7 @@
         <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2">
         <v>45911</v>
@@ -3696,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3786,7 +3786,7 @@
         <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3797,12 +3797,23 @@
         <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" t="s">
         <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B0E8A1-1920-4567-8006-1AC73AB47100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B0E5D-A478-4BDD-842F-EE0055029FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="131">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1033,10 +1033,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NEW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>電子マネーエラーの内容がログから追跡できない</t>
     <rPh sb="0" eb="2">
       <t>デンシ</t>
@@ -1199,9 +1195,6 @@
     <t>売上データ（成功）がセンター送信される。</t>
   </si>
   <si>
-    <t>売上データ（失敗）がセンター送信される。</t>
-  </si>
-  <si>
     <t>取消がUIからキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
     <rPh sb="0" eb="2">
       <t>トリケシ</t>
@@ -1322,9 +1315,203 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>QRエラーなのに状態が "processing" のままになる。</t>
+    <t>API要求後、コード読込画面を表示する</t>
+    <rPh sb="3" eb="6">
+      <t>ヨウキュウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（QR）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払がUIキャンセルされると  DB: transactions が更新される。状態は "stopped"。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>API要求後、即実行する</t>
+    <rPh sb="3" eb="6">
+      <t>ヨウキュウゴ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ソクジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初回 DB: transactions が新規登録される。状態は "processing"</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消が成功すると DB: history_slips が新規登録される。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消が成功すると DB: history_uris が新規登録される。※ 売上データ送信で削除されるためそれ以前に確認</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未了時、再確認の結果、支払が成功していると、成功時と同様のデータが登録される。</t>
+    <rPh sb="0" eb="3">
+      <t>ミリョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイカクニン</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未了時、再確認の結果、支払が失敗していると、失敗時と同様のデータが登録される。</t>
+    <rPh sb="0" eb="3">
+      <t>ミリョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイカクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払が成功すると DB: transactions が更新される。状態は "completed"。history_slips と紐づく。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未了時、中断すると、処理未了となる。状態は "completed"。</t>
+    <rPh sb="0" eb="3">
+      <t>ミリョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消売上データ（失敗）がセンター送信される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QR取消の 通信不良時 、再確認に成功したのに処理未了扱いになる。</t>
+    <rPh sb="2" eb="4">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイカクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正済</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上送信後は取消不可になる？</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1333,7 +1520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,6 +1541,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1403,7 +1597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1412,6 +1606,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1692,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2617,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2">
         <v>45911</v>
@@ -2640,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2">
         <v>45911</v>
@@ -2663,7 +2858,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2">
         <v>45911</v>
@@ -2686,7 +2881,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2">
         <v>45911</v>
@@ -2709,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2">
         <v>45911</v>
@@ -2732,7 +2927,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2">
         <v>45911</v>
@@ -2755,7 +2950,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F52" s="2">
         <v>45911</v>
@@ -2778,34 +2973,34 @@
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="6" customFormat="1">
-      <c r="F54" s="7"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F55" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -2816,19 +3011,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -2839,19 +3034,19 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
@@ -2862,45 +3057,65 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="4" customFormat="1">
-      <c r="F59" s="5"/>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="F60" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>13</v>
@@ -2911,19 +3126,19 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F61" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -2934,19 +3149,19 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="F62" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -2957,19 +3172,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F63" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
@@ -2980,85 +3195,45 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" s="6" customFormat="1">
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2">
         <v>45898</v>
@@ -3072,16 +3247,16 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2">
         <v>45898</v>
@@ -3095,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
@@ -3104,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2">
         <v>45898</v>
@@ -3118,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3127,25 +3302,17 @@
         <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1">
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
@@ -3158,10 +3325,10 @@
         <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2">
         <v>45898</v>
@@ -3181,10 +3348,10 @@
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F73" s="2">
         <v>45898</v>
@@ -3207,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2">
         <v>45898</v>
@@ -3230,7 +3397,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2">
         <v>45898</v>
@@ -3253,10 +3420,10 @@
         <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F76" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
@@ -3276,10 +3443,10 @@
         <v>20</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>13</v>
@@ -3293,15 +3460,20 @@
         <v>60</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F78" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
@@ -3311,13 +3483,13 @@
         <v>60</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2">
         <v>45898</v>
@@ -3334,13 +3506,13 @@
         <v>60</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2">
         <v>45898</v>
@@ -3357,13 +3529,13 @@
         <v>60</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2">
         <v>45898</v>
@@ -3380,15 +3552,14 @@
         <v>60</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F82" s="2"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
@@ -3398,19 +3569,13 @@
         <v>60</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3421,16 +3586,16 @@
         <v>60</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
@@ -3444,16 +3609,16 @@
         <v>60</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F85" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>13</v>
@@ -3467,16 +3632,16 @@
         <v>60</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>13</v>
@@ -3490,16 +3655,16 @@
         <v>60</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>13</v>
@@ -3513,127 +3678,101 @@
         <v>60</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45911</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="4" customFormat="1">
-      <c r="F89" s="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F90" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>117</v>
+      <c r="E91" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F92" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F93" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F94" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
@@ -3644,47 +3783,632 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="4" customFormat="1">
-      <c r="F96" s="5"/>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F120" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F122" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F123" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F124" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F97" s="2">
+      <c r="F126" s="2">
         <v>45898</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3698,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3712,14 +4436,14 @@
         <v>69</v>
       </c>
       <c r="B1" s="3">
-        <f>COUNTA(D1:D10)</f>
-        <v>10</v>
+        <f>COUNTA(D1:D21)</f>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3727,7 +4451,7 @@
         <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3735,7 +4459,7 @@
         <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3743,7 +4467,7 @@
         <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3751,7 +4475,7 @@
         <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3759,7 +4483,7 @@
         <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3767,7 +4491,7 @@
         <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3775,45 +4499,36 @@
         <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
         <v>90</v>
       </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B0E5D-A478-4BDD-842F-EE0055029FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB8883-B1E2-4D13-AE7F-E6597FE22BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="136">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1512,6 +1512,53 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引系：取引取得</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキケイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>トリヒキシュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クレジットのレスポンスデータが取得できる。</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのレスポンスは各プロパティの内容が正しい。</t>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額 0 などが指定できる。</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランドに "クレジット" と出ている.</t>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1887,10 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -4394,21 +4441,102 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F141" s="2">
         <v>45898</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4420,10 +4548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4437,7 +4565,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -4529,6 +4657,19 @@
     <row r="12" spans="1:10">
       <c r="D12" t="s">
         <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB8883-B1E2-4D13-AE7F-E6597FE22BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F326C92C-AB8B-4F7D-91AC-FCB1BCC00F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="157">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1556,9 +1556,246 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブランドに "クレジット" と出ている.</t>
+    <t>http 要求を送信する（クレジット）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（Edy）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（iD）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（nanaco）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（quicpay）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（suica）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Edyのレスポンスデータが取得できる。</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iDのレスポンスデータが取得できる。</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nanacoのレスポンスデータが取得できる。</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>quicpayのレスポンスデータが取得できる。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>suicaのレスポンスデータが取得できる。</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>失敗した取引のレシート印刷がコールできる。</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランドに "クレジット" と出ている. IF仕様によると "VISA" などが正しい。</t>
     <rPh sb="15" eb="16">
       <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引系：レシート出力</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正常または処理未了でない場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : RECEIPT_UNAVAILABLE ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引系：取引一覧取得</t>
+    <rPh sb="0" eb="3">
+      <t>トリヒキケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引一覧取得が パラメータ required: false と定義されているが、実際は必須</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_PARAMS ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引データが取得できる。IDの降順である。</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメタが不正文字の場合、エラーを返す。</t>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメタが範囲外な場合、エラーを返す。</t>
+    <rPh sb="5" eb="7">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1934,16 +2171,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
@@ -4444,7 +4681,7 @@
         <v>131</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
@@ -4452,7 +4689,12 @@
       <c r="E126" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F126" s="2"/>
+      <c r="F126" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
@@ -4470,73 +4712,546 @@
       <c r="E127" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F127" s="2"/>
+      <c r="F127" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="F128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="F129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="F130" s="2"/>
+      <c r="A130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="F131" s="2"/>
+      <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F131" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="F132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="F133" s="2"/>
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F134" s="2"/>
+      <c r="G134" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F135" s="2"/>
+      <c r="G135" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="F136" s="2"/>
+      <c r="A136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F136" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="F137" s="2"/>
+      <c r="A137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="F138" s="2"/>
+      <c r="A138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="F139" s="2"/>
+      <c r="A139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F139" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="4"/>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F142" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F156" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F161" s="2">
         <v>45898</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4548,10 +5263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4565,7 +5280,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -4669,7 +5384,23 @@
     </row>
     <row r="14" spans="1:10">
       <c r="D14" t="s">
-        <v>135</v>
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F326C92C-AB8B-4F7D-91AC-FCB1BCC00F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993A730-9C8C-4D22-9AAE-B34BC7B9BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="168">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1796,6 +1796,107 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額範囲が 1 ~ 999999 範囲外の場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_AMOUNT ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>amount に文字列を指定すると、アプリがクラッシュする</t>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成１</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成２</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成３</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>任意のAPIをコールする</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成１でのAPI疎通ができる</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成２でのAPI疎通ができる</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成３でのAPI疎通ができる</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソツウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1804,7 +1905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1832,6 +1933,13 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1881,7 +1989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1891,6 +1999,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2171,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2213,102 +2322,70 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>163</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2318,20 +2395,11 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2348,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -2362,16 +2430,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
         <v>45895</v>
@@ -2385,16 +2453,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <v>45895</v>
@@ -2408,16 +2476,16 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2">
         <v>45895</v>
@@ -2431,19 +2499,19 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
@@ -2457,39 +2525,59 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="F16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2">
         <v>45895</v>
@@ -2503,68 +2591,68 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="F19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -2575,46 +2663,26 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
@@ -2630,10 +2698,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -2653,10 +2721,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -2676,10 +2744,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F26" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -2699,17 +2767,37 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F27" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="2">
         <v>45897</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="F28" s="2"/>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
@@ -2719,16 +2807,16 @@
         <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -2742,16 +2830,16 @@
         <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F30" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -2765,13 +2853,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F31" s="2">
         <v>45897</v>
@@ -2788,16 +2876,16 @@
         <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="F32" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -2811,43 +2899,23 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="F33" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
@@ -2860,13 +2928,13 @@
         <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -2883,13 +2951,13 @@
         <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -2906,10 +2974,10 @@
         <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2">
         <v>45897</v>
@@ -2929,10 +2997,10 @@
         <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2">
         <v>45897</v>
@@ -2952,10 +3020,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2">
         <v>45897</v>
@@ -2978,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2">
         <v>45897</v>
@@ -2998,13 +3066,13 @@
         <v>54</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -3021,20 +3089,40 @@
         <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="F43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
@@ -3044,16 +3132,16 @@
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -3067,16 +3155,16 @@
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -3090,16 +3178,16 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -3113,16 +3201,16 @@
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -3136,43 +3224,23 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
@@ -3185,10 +3253,10 @@
         <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F50" s="2">
         <v>45911</v>
@@ -3208,10 +3276,10 @@
         <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="F51" s="2">
         <v>45911</v>
@@ -3234,7 +3302,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F52" s="2">
         <v>45911</v>
@@ -3257,15 +3325,37 @@
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45911</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="F54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
@@ -3275,16 +3365,16 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F55" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -3298,16 +3388,16 @@
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F56" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -3321,16 +3411,16 @@
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F57" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
@@ -3344,16 +3434,16 @@
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -3367,43 +3457,21 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="2">
-        <v>45912</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
@@ -3416,10 +3484,10 @@
         <v>117</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F61" s="2">
         <v>45912</v>
@@ -3439,10 +3507,10 @@
         <v>117</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F62" s="2">
         <v>45912</v>
@@ -3462,10 +3530,10 @@
         <v>117</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F63" s="2">
         <v>45912</v>
@@ -3485,10 +3553,10 @@
         <v>117</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2">
         <v>45912</v>
@@ -3498,29 +3566,69 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" s="6" customFormat="1">
-      <c r="F66" s="7"/>
+      <c r="A65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
@@ -3531,19 +3639,19 @@
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="F68" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
@@ -3554,19 +3662,19 @@
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="F69" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
@@ -3577,56 +3685,36 @@
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F70" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1">
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="71" spans="1:7">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" s="6" customFormat="1">
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -3635,7 +3723,7 @@
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F73" s="2">
         <v>45898</v>
@@ -3649,16 +3737,16 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2">
         <v>45898</v>
@@ -3672,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -3681,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2">
         <v>45898</v>
@@ -3695,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
@@ -3704,7 +3792,7 @@
         <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2">
         <v>45898</v>
@@ -3713,28 +3801,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="77" spans="1:7" s="4" customFormat="1">
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
@@ -3747,10 +3815,10 @@
         <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2">
         <v>45898</v>
@@ -3770,10 +3838,10 @@
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2">
         <v>45898</v>
@@ -3796,7 +3864,7 @@
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2">
         <v>45898</v>
@@ -3819,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2">
         <v>45898</v>
@@ -3842,7 +3910,13 @@
         <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3859,7 +3933,13 @@
         <v>20</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3876,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2">
         <v>45898</v>
@@ -3899,7 +3979,7 @@
         <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F85" s="2">
         <v>45898</v>
@@ -3922,7 +4002,7 @@
         <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2">
         <v>45898</v>
@@ -3945,7 +4025,7 @@
         <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F87" s="2">
         <v>45898</v>
@@ -3968,13 +4048,7 @@
         <v>20</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3991,17 +4065,31 @@
         <v>20</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="F90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
@@ -4013,13 +4101,41 @@
       <c r="C91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F91" s="2"/>
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="F92" s="2"/>
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
@@ -4029,15 +4145,20 @@
         <v>60</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F93" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
@@ -4047,16 +4168,16 @@
         <v>60</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
@@ -4070,43 +4191,23 @@
         <v>60</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F96" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
@@ -4116,13 +4217,10 @@
         <v>60</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>127</v>
+        <v>12</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -4137,7 +4235,7 @@
         <v>60</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>19</v>
@@ -4145,12 +4243,7 @@
       <c r="E99" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
@@ -4160,16 +4253,16 @@
         <v>60</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>13</v>
@@ -4183,16 +4276,16 @@
         <v>60</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>13</v>
@@ -4206,16 +4299,16 @@
         <v>60</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>13</v>
@@ -4229,44 +4322,41 @@
         <v>60</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="D105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F105" s="2">
         <v>45911</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="F105" s="2"/>
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
@@ -4276,16 +4366,16 @@
         <v>60</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F106" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>13</v>
@@ -4299,16 +4389,16 @@
         <v>60</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F107" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
@@ -4322,16 +4412,16 @@
         <v>60</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>13</v>
@@ -4345,16 +4435,16 @@
         <v>60</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>13</v>
@@ -4368,43 +4458,21 @@
         <v>60</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F110" s="2">
-        <v>45912</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F111" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
@@ -4417,10 +4485,10 @@
         <v>117</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2">
         <v>45912</v>
@@ -4440,10 +4508,10 @@
         <v>117</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F113" s="2">
         <v>45912</v>
@@ -4451,9 +4519,6 @@
       <c r="G113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H113" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
@@ -4466,10 +4531,10 @@
         <v>117</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2">
         <v>45912</v>
@@ -4492,9 +4557,14 @@
         <v>19</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F115" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
@@ -4510,43 +4580,85 @@
         <v>19</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F116" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="F117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="4"/>
+      <c r="A118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4554,19 +4666,19 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>13</v>
@@ -4577,120 +4689,90 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F122" s="2">
+      <c r="D125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="2">
         <v>45911</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F123" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F124" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="4"/>
+      <c r="G125" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F126" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>13</v>
@@ -4701,19 +4783,19 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="F127" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>13</v>
@@ -4724,19 +4806,19 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
@@ -4747,19 +4829,19 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>13</v>
@@ -4770,46 +4852,32 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F130" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F131" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
@@ -4819,13 +4887,13 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F132" s="2">
         <v>45917</v>
@@ -4865,17 +4933,19 @@
         <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45917</v>
+      </c>
       <c r="G134" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4894,9 +4964,11 @@
       <c r="E135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F135" s="2"/>
+      <c r="F135" s="2">
+        <v>45917</v>
+      </c>
       <c r="G135" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4907,13 +4979,13 @@
         <v>131</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F136" s="2">
         <v>45917</v>
@@ -4953,13 +5025,13 @@
         <v>131</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="F138" s="2">
         <v>45917</v>
@@ -4979,10 +5051,10 @@
         <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F139" s="2">
         <v>45917</v>
@@ -4992,32 +5064,62 @@
       </c>
     </row>
     <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F140" s="2"/>
+      <c r="G140" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="4"/>
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2">
         <v>45917</v>
@@ -5031,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
@@ -5050,14 +5152,34 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="F144" s="2"/>
+      <c r="A144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
@@ -5066,7 +5188,7 @@
         <v>20</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="F145" s="2">
         <v>45917</v>
@@ -5076,50 +5198,16 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F146" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F147" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
@@ -5132,10 +5220,10 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F148" s="2">
         <v>45917</v>
@@ -5145,74 +5233,134 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="F149" s="2"/>
+      <c r="A149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="4"/>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="F151" s="2"/>
+      <c r="A151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="F152" s="2"/>
+      <c r="A152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="F153" s="2"/>
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="F154" s="2"/>
+      <c r="A154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F155" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F156" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
       <c r="F157" s="2"/>
@@ -5224,34 +5372,92 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="4"/>
+      <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F162" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F167" s="2">
         <v>45898</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5263,10 +5469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5280,7 +5486,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -5378,29 +5584,68 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J14" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J15" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>152</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993A730-9C8C-4D22-9AAE-B34BC7B9BB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420FAC3-40E3-44C5-ACA3-44D0D9886A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="170">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1898,6 +1898,29 @@
     <rPh sb="8" eb="10">
       <t>ソツウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レシートが出力される順序は "加盟店控え"  "お客様控え" である。(suica 確認)</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンジョ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カメイテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（suica）</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2280,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3481,16 +3504,16 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -3504,7 +3527,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
@@ -3513,7 +3536,7 @@
         <v>32</v>
       </c>
       <c r="F62" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -3527,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -3536,7 +3559,7 @@
         <v>102</v>
       </c>
       <c r="F63" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
@@ -3550,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
@@ -3559,7 +3582,7 @@
         <v>103</v>
       </c>
       <c r="F64" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -3573,16 +3596,16 @@
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F65" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
@@ -3596,7 +3619,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>20</v>
@@ -3605,7 +3628,7 @@
         <v>105</v>
       </c>
       <c r="F66" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -3619,16 +3642,16 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
@@ -3642,16 +3665,16 @@
         <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F68" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
@@ -3665,16 +3688,16 @@
         <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
@@ -3688,16 +3711,16 @@
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -3706,73 +3729,33 @@
     <row r="71" spans="1:7">
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1">
-      <c r="F72" s="7"/>
+    <row r="72" spans="1:7">
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F75" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
@@ -3783,45 +3766,65 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="F76" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1">
-      <c r="F77" s="5"/>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
@@ -3832,19 +3835,19 @@
         <v>2</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>13</v>
@@ -3855,19 +3858,19 @@
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F80" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -3878,19 +3881,19 @@
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>13</v>
@@ -3901,19 +3904,19 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F82" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>13</v>
@@ -3924,19 +3927,19 @@
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -3947,85 +3950,45 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F84" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F85" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" s="6" customFormat="1">
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2">
         <v>45898</v>
@@ -4039,16 +4002,22 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4056,7 +4025,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -4065,7 +4034,13 @@
         <v>20</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4073,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -4082,7 +4057,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F90" s="2">
         <v>45898</v>
@@ -4091,28 +4066,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F91" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="91" spans="1:7" s="4" customFormat="1">
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
@@ -4125,10 +4080,10 @@
         <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2">
         <v>45898</v>
@@ -4148,10 +4103,10 @@
         <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2">
         <v>45898</v>
@@ -4174,10 +4129,10 @@
         <v>20</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F94" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
@@ -4197,17 +4152,37 @@
         <v>20</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="F95" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="F96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
@@ -4219,13 +4194,41 @@
       <c r="C97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F97" s="2"/>
+      <c r="D97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="F98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
@@ -4235,15 +4238,20 @@
         <v>60</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
@@ -4253,13 +4261,13 @@
         <v>60</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2">
         <v>45898</v>
@@ -4276,13 +4284,13 @@
         <v>60</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2">
         <v>45898</v>
@@ -4299,19 +4307,13 @@
         <v>60</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4322,18 +4324,37 @@
         <v>60</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="F104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
@@ -4343,16 +4364,16 @@
         <v>60</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>13</v>
@@ -4366,16 +4387,16 @@
         <v>60</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>13</v>
@@ -4389,16 +4410,16 @@
         <v>60</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
@@ -4412,13 +4433,13 @@
         <v>60</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2">
         <v>45911</v>
@@ -4435,13 +4456,13 @@
         <v>60</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2">
         <v>45911</v>
@@ -4451,53 +4472,27 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F112" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
@@ -4505,22 +4500,17 @@
         <v>60</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F113" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -4528,22 +4518,22 @@
         <v>60</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
@@ -4551,22 +4541,22 @@
         <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -4574,22 +4564,22 @@
         <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F116" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -4597,45 +4587,20 @@
         <v>60</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F117" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F118" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -4643,25 +4608,22 @@
         <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F119" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -4669,22 +4631,22 @@
         <v>60</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -4692,17 +4654,22 @@
         <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -4710,342 +4677,332 @@
         <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F123" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F126" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F127" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F131" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F125" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F126" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F127" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F128" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F129" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F130" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F132" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F133" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F134" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F135" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F136" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F137" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F138" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>12</v>
@@ -5054,109 +5011,113 @@
         <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F140" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45911</v>
+      </c>
       <c r="G140" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F141" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45911</v>
+      </c>
       <c r="G141" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F142" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F143" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>12</v>
@@ -5165,65 +5126,85 @@
         <v>20</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F144" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F146" s="2">
         <v>45917</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="G146" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="2">
+      <c r="D147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F147" s="2">
         <v>45917</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="4"/>
+      <c r="G147" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F148" s="2">
         <v>45917</v>
@@ -5237,7 +5218,7 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>12</v>
@@ -5256,23 +5237,43 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="F150" s="2"/>
+      <c r="A150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2">
         <v>45917</v>
@@ -5286,16 +5287,16 @@
         <v>2</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F152" s="2">
         <v>45917</v>
@@ -5309,16 +5310,16 @@
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F153" s="2">
         <v>45917</v>
@@ -5332,86 +5333,162 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F154" s="2">
+      <c r="D155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F156" s="2">
         <v>45917</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="4"/>
+      <c r="G156" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="F157" s="2"/>
+      <c r="A157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="F158" s="2"/>
+      <c r="A158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="F159" s="2"/>
+      <c r="A159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F161" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F162" s="2">
         <v>45917</v>
@@ -5421,43 +5498,284 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="F163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="F165" s="2"/>
+      <c r="A165" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F165" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="4"/>
+      <c r="A166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F166" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F167" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F168" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F176" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F177" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167" s="1" t="s">
+      <c r="D182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F182" s="2">
         <v>45898</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5472,7 +5790,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420FAC3-40E3-44C5-ACA3-44D0D9886A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67EF86-4928-4957-A176-48E5575334F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="186">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1566,16 +1566,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http 要求を送信する（Edy）</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http 要求を送信する（iD）</t>
     <rPh sb="5" eb="7">
       <t>ヨウキュウ</t>
@@ -1921,6 +1911,140 @@
   </si>
   <si>
     <t>http 要求を送信する（suica）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消売上データ（処理未了）は作成されない。</t>
+    <rPh sb="8" eb="12">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支払のレシートが出力される。</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消のレシートが出力される。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理未了（支払）のレシートが出力される。</t>
+    <rPh sb="0" eb="4">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（edy）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保留、再現できない</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再現不可</t>
+    <rPh sb="0" eb="2">
+      <t>サイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（edy）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edy は取消できない。</t>
+    <rPh sb="5" eb="7">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edy は取消できない</t>
+    <rPh sb="5" eb="7">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（iD）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>存在しない？</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（nanaco）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nanaco は取消できない</t>
+    <rPh sb="8" eb="10">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edy と WAON の処理未了状態がおかしい？</t>
+    <rPh sb="12" eb="16">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"unknown" にならない</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2303,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2345,53 +2469,53 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2905,7 +3029,7 @@
         <v>20</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2">
         <v>45919</v>
@@ -2928,7 +3052,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="2">
         <v>45919</v>
@@ -3273,7 +3397,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>19</v>
@@ -3282,7 +3406,7 @@
         <v>82</v>
       </c>
       <c r="F50" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>13</v>
@@ -3296,7 +3420,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
@@ -3305,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>13</v>
@@ -3319,7 +3443,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -3328,7 +3452,7 @@
         <v>102</v>
       </c>
       <c r="F52" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>13</v>
@@ -3342,7 +3466,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
@@ -3351,7 +3475,7 @@
         <v>103</v>
       </c>
       <c r="F53" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>13</v>
@@ -3365,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
@@ -3374,7 +3498,7 @@
         <v>104</v>
       </c>
       <c r="F54" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>13</v>
@@ -3388,7 +3512,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>20</v>
@@ -3397,7 +3521,7 @@
         <v>105</v>
       </c>
       <c r="F55" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -3411,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
@@ -3420,7 +3544,7 @@
         <v>106</v>
       </c>
       <c r="F56" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -3434,7 +3558,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
@@ -3443,7 +3567,7 @@
         <v>107</v>
       </c>
       <c r="F57" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
@@ -3457,7 +3581,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
@@ -3466,7 +3590,7 @@
         <v>99</v>
       </c>
       <c r="F58" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -3480,7 +3604,7 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>19</v>
@@ -3490,7 +3614,7 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3504,7 +3628,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>19</v>
@@ -3527,7 +3651,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
@@ -3550,7 +3674,7 @@
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -3573,7 +3697,7 @@
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
@@ -3596,7 +3720,7 @@
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
@@ -3619,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>20</v>
@@ -3642,7 +3766,7 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
@@ -3665,7 +3789,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>20</v>
@@ -3688,7 +3812,7 @@
         <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>19</v>
@@ -3711,7 +3835,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>19</v>
@@ -3719,24 +3843,82 @@
       <c r="E70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F70" s="2">
-        <v>45919</v>
-      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="F72" s="2"/>
+      <c r="A72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="F73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="F74" s="2"/>
+      <c r="A74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
@@ -3746,16 +3928,16 @@
         <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
@@ -3769,16 +3951,16 @@
         <v>17</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
@@ -3792,16 +3974,16 @@
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F77" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>13</v>
@@ -3815,16 +3997,16 @@
         <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
@@ -3838,16 +4020,16 @@
         <v>17</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>13</v>
@@ -3861,16 +4043,16 @@
         <v>17</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -3884,66 +4066,24 @@
         <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F81" s="2">
-        <v>45912</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
@@ -3953,45 +4093,85 @@
         <v>17</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" s="6" customFormat="1">
-      <c r="F86" s="7"/>
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F87" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>13</v>
@@ -4002,19 +4182,19 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F88" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -4025,19 +4205,19 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F89" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>13</v>
@@ -4048,45 +4228,65 @@
         <v>2</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="4" customFormat="1">
-      <c r="F91" s="5"/>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>13</v>
@@ -4097,134 +4297,54 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F96" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>13</v>
@@ -4235,19 +4355,19 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F99" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>13</v>
@@ -4258,19 +4378,19 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>13</v>
@@ -4281,19 +4401,19 @@
         <v>2</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>13</v>
@@ -4304,16 +4424,22 @@
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>61</v>
+        <v>125</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4321,16 +4447,22 @@
         <v>2</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4338,19 +4470,19 @@
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F104" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>13</v>
@@ -4361,19 +4493,19 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F105" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>13</v>
@@ -4384,19 +4516,19 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>13</v>
@@ -4407,131 +4539,124 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" s="6" customFormat="1">
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" s="2">
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="2">
         <v>45898</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F109" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="F110" s="2"/>
+      <c r="G110" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F111" s="2"/>
+      <c r="D111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="F112" s="2"/>
+      <c r="A112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F114" s="2">
+        <v>111</v>
+      </c>
+      <c r="F113" s="2">
         <v>45898</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G113" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="4" customFormat="1">
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1" t="s">
@@ -4541,13 +4666,13 @@
         <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2">
         <v>45898</v>
@@ -4564,13 +4689,13 @@
         <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2">
         <v>45898</v>
@@ -4587,18 +4712,43 @@
         <v>60</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F117" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="F118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
@@ -4608,16 +4758,16 @@
         <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F119" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>13</v>
@@ -4631,16 +4781,16 @@
         <v>60</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F120" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>13</v>
@@ -4654,16 +4804,16 @@
         <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="F121" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>13</v>
@@ -4677,16 +4827,16 @@
         <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F122" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>13</v>
@@ -4700,16 +4850,16 @@
         <v>60</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>13</v>
@@ -4723,21 +4873,37 @@
         <v>60</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F124" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="F124" s="2">
+        <v>45898</v>
+      </c>
       <c r="G124" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="F125" s="2"/>
+      <c r="A125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1" t="s">
@@ -4747,19 +4913,13 @@
         <v>60</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F126" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4770,16 +4930,16 @@
         <v>60</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F127" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>13</v>
@@ -4793,22 +4953,22 @@
         <v>60</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
@@ -4816,22 +4976,22 @@
         <v>60</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -4839,22 +4999,22 @@
         <v>60</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -4862,22 +5022,22 @@
         <v>60</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F131" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
@@ -4885,48 +5045,25 @@
         <v>60</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F132" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F133" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+    <row r="133" spans="1:7">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -4934,40 +5071,17 @@
         <v>60</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F134" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
         <v>2</v>
       </c>
@@ -4975,158 +5089,147 @@
         <v>60</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:8">
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:8">
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F139" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F140" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F141" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="F142" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F143" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+    <row r="143" spans="1:7">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F144" s="2">
         <v>45911</v>
@@ -5136,32 +5239,46 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="4"/>
+      <c r="A145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="F146" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>13</v>
@@ -5172,19 +5289,19 @@
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F147" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>13</v>
@@ -5195,19 +5312,19 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F148" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
@@ -5218,111 +5335,69 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F149" s="2">
-        <v>45917</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F150" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F151" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F152" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F153" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>13</v>
@@ -5333,20 +5408,22 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F154" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45911</v>
+      </c>
       <c r="G154" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5354,20 +5431,22 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F155" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45911</v>
+      </c>
       <c r="G155" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5375,19 +5454,19 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F156" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>13</v>
@@ -5398,19 +5477,19 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="F157" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>13</v>
@@ -5421,361 +5500,1446 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F158" s="2">
-        <v>45917</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F158" s="2"/>
       <c r="G158" s="1" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F159" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="F162" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F163" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:7">
+    <row r="164" spans="1:8">
+      <c r="A164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F164" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F165" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F166" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+    <row r="166" spans="1:8">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="F167" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F168" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:7">
+    <row r="169" spans="1:8">
+      <c r="A169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F169" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F170" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F171" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="F172" s="2">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:7">
+    <row r="173" spans="1:8">
+      <c r="A173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F173" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:7">
+        <v>124</v>
+      </c>
+      <c r="F174" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="F175" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F176" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F177" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:7">
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="F179" s="2"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="4"/>
     </row>
     <row r="180" spans="1:7">
-      <c r="F180" s="2"/>
+      <c r="A180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F180" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="4"/>
+      <c r="A181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F181" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F182" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F183" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F184" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F185" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F187" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F188" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F189" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F190" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F191" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F192" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F193" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F194" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F196" s="2"/>
+      <c r="G196" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F197" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F200" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F203" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F204" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F206" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F207" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F208" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F209" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F213" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F217" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F218" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F220" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F221" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F223" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F224" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F227" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F228" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F232" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F233" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F234" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="D238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F238" s="2">
         <v>45898</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5787,10 +6951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5804,7 +6968,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -5916,7 +7080,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -5929,7 +7093,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -5942,7 +7106,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="D16" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -5953,9 +7117,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="4:14">
       <c r="D17" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -5966,6 +7130,14 @@
         <v>90</v>
       </c>
     </row>
+    <row r="18" spans="4:14">
+      <c r="D18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67EF86-4928-4957-A176-48E5575334F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A763E2-0014-4349-B911-58E3C15FAEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="186">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2044,7 +2044,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>"unknown" にならない</t>
+    <t>WAON : 処理未了画面で中止ボタンを押すと "stopped" になり、未了の発生を検出できない</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンシュツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6951,10 +6975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6968,7 +6992,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -7117,7 +7141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="4:14">
+    <row r="17" spans="4:10">
       <c r="D17" s="9" t="s">
         <v>158</v>
       </c>
@@ -7130,12 +7154,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:14">
+    <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="N18" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A763E2-0014-4349-B911-58E3C15FAEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E15FA-A982-4569-B0B9-62B910D6E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="193">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2068,6 +2068,91 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：保守メニュー表示</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaintenanceAPP が全面表示される。アプリケーションが前面にいない場合 onCreate が実行される。</t>
+    <rPh sb="16" eb="20">
+      <t>ゼンメンヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：ソフトウェア更新</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーババージョン &lt;= 自アプリのバージョン なら何もしない。</t>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーババージョン &gt; 自アプリのバージョン なら、アップデートを行う。</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップデート中にコールした場合、エラーを返す。</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_SOFT_STATUS ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2451,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -6967,6 +7052,121 @@
         <v>13</v>
       </c>
     </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F241" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F242" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F243" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F244" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F245" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6977,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E15FA-A982-4569-B0B9-62B910D6E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61FA61-FC0E-4864-A240-8BDCDA38F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="211">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2153,6 +2153,186 @@
     <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_SOFT_STATUS ]</t>
     <rPh sb="8" eb="10">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：端末情報取得</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各応答項目が正しい値で取得できる。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末情報取得で staff_no に "null" と表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　”staff_no" が取得できる。</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　"receipt_tel_no" が取得できる。</t>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　”receipt_tax” が取得できる。"0.08" など</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "invoice_no" が取得できる。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "battery" が取得できる。100 など</t>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "storage_free_space" が取得できる。</t>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "memory_free_space" が取得できる。</t>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "memory_usage" が取得できる。</t>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"経過時間" がスリープを含まない</t>
+    <rPh sb="1" eb="3">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "firm_version" が取得できる。</t>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "radio" が取得できる。ただし SIM 設定時のみ + Background に入ると更新されない</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "payment_methods" が取得できる。</t>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "mdns" が取得できる。</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "wifi_info" が取得できる。</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   "ethernet_info" が取得できる。</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2536,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -7034,21 +7214,62 @@
         <v>2</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F238" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G238" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F239" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F240" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G240" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7057,7 +7278,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>12</v>
@@ -7066,10 +7287,10 @@
         <v>19</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F241" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>13</v>
@@ -7080,7 +7301,7 @@
         <v>2</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>12</v>
@@ -7089,10 +7310,10 @@
         <v>19</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F242" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>13</v>
@@ -7103,19 +7324,19 @@
         <v>2</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F243" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>13</v>
@@ -7126,19 +7347,19 @@
         <v>2</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F244" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>13</v>
@@ -7149,7 +7370,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>12</v>
@@ -7158,12 +7379,302 @@
         <v>19</v>
       </c>
       <c r="E245" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F245" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F246" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F247" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F248" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F250" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="F254" s="2"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F256" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F259" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F260" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F261" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F262" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F263" s="2">
         <v>45922</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7175,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7192,7 +7703,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>70</v>
@@ -7367,6 +7878,22 @@
         <v>184</v>
       </c>
     </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D61FA61-FC0E-4864-A240-8BDCDA38F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27E7D7-4C7B-432A-B35E-73575AD83C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="不具合" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>吉澤 和也</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{1077CD76-762C-4126-A9B0-4918FF1154D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Android ソフトで mDNS名に対する通信を許可する。
+HTTPクライアントをmDNS対応。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="225">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1833,27 +1860,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>構成１</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成２</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成３</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>任意のAPIをコールする</t>
     <rPh sb="0" eb="2">
       <t>ニンイ</t>
@@ -1861,36 +1867,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>構成１でのAPI疎通ができる</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成２でのAPI疎通ができる</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成３でのAPI疎通ができる</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レシートが出力される順序は "加盟店控え"  "お客様控え" である。(suica 確認)</t>
     <rPh sb="5" eb="7">
       <t>シュツリョク</t>
@@ -2257,14 +2233,14 @@
   </si>
   <si>
     <t xml:space="preserve">   "memory_free_space" が取得できる。</t>
-    <rPh sb="30" eb="32">
+    <rPh sb="0" eb="30">
       <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">   "memory_usage" が取得できる。</t>
-    <rPh sb="25" eb="27">
+    <rPh sb="0" eb="25">
       <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2333,6 +2309,179 @@
     <t xml:space="preserve">   "ethernet_info" が取得できる。</t>
     <rPh sb="20" eb="22">
       <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成１でのAPI疎通ができる（タブレット→決済端末）</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソツウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワーク確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済端末はインターネット疎通できる</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブレットはインターネット疎通できる</t>
+    <rPh sb="13" eb="15">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブレット１のAndroid バージョンは 15、デフォルトで http 通信が禁止。</t>
+    <rPh sb="37" eb="39">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対応策</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lenovo Tab M11 は Wifiテザリングの機能がない</t>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成２でのAPI疎通ができる（タブレット→決済端末）</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソツウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タブレットは WI-FI 繋ぎながら イーサネットテザリング</t>
+    <rPh sb="13" eb="14">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成３でのAPI疎通ができる（タブレット→決済端末）</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成１（Lenovo Tab B11</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成２（Lenovo Tab B11</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成３（Lenovo Tab B11</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イーサネットテザリングは "設定を検索" で直接いける（メニューにない）</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成３（IRISOHYAMA TM153</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成２（IRISOHYAMA TM153</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IRISOHYAMA TM153 は Wifiテザリングの機能がない</t>
+    <rPh sb="29" eb="31">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構成１（IRISOHYAMA TM153</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2341,7 +2490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2376,6 +2525,14 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2715,17 +2872,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="23.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
@@ -2733,7 +2890,7 @@
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2756,572 +2913,568 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>205</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>207</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>208</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F29" s="2">
         <v>45895</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F30" s="2">
         <v>45895</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F31" s="2">
         <v>45895</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F32" s="2">
         <v>45895</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45919</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -3332,42 +3485,62 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>45919</v>
+        <v>45895</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="F34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2">
         <v>45895</v>
@@ -3381,19 +3554,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -3404,19 +3577,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -3427,65 +3600,45 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F38" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F40" s="2">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -3496,46 +3649,26 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
@@ -3545,16 +3678,16 @@
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -3568,16 +3701,16 @@
         <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -3591,16 +3724,16 @@
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -3614,16 +3747,16 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -3637,16 +3770,16 @@
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -3660,23 +3793,43 @@
         <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="F49" s="2"/>
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
@@ -3686,16 +3839,16 @@
         <v>17</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>13</v>
@@ -3709,13 +3862,13 @@
         <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="F51" s="2">
         <v>45919</v>
@@ -3732,13 +3885,13 @@
         <v>17</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="F52" s="2">
         <v>45919</v>
@@ -3748,27 +3901,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
@@ -3778,16 +3911,16 @@
         <v>17</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="F54" s="2">
-        <v>45919</v>
+        <v>45895</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>13</v>
@@ -3801,16 +3934,16 @@
         <v>17</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="F55" s="2">
-        <v>45919</v>
+        <v>45896</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -3824,16 +3957,16 @@
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -3847,16 +3980,16 @@
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
@@ -3870,16 +4003,16 @@
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -3893,21 +4026,43 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45897</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>174</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="F60" s="2"/>
+      <c r="A60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
@@ -3917,16 +4072,16 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F61" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -3940,16 +4095,16 @@
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F62" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -3963,16 +4118,16 @@
         <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
@@ -3986,16 +4141,16 @@
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -4009,16 +4164,16 @@
         <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
@@ -4032,16 +4187,16 @@
         <v>17</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -4055,43 +4210,23 @@
         <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
@@ -4101,13 +4236,13 @@
         <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2">
         <v>45919</v>
@@ -4124,21 +4259,43 @@
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45919</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="F71" s="2"/>
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
@@ -4148,16 +4305,16 @@
         <v>17</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -4171,16 +4328,16 @@
         <v>17</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
@@ -4194,16 +4351,16 @@
         <v>17</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>13</v>
@@ -4217,16 +4374,16 @@
         <v>17</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
@@ -4240,16 +4397,16 @@
         <v>17</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
@@ -4263,16 +4420,16 @@
         <v>17</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>13</v>
@@ -4286,43 +4443,21 @@
         <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F78" s="2">
-        <v>45911</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
@@ -4332,16 +4467,16 @@
         <v>17</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -4355,24 +4490,66 @@
         <v>17</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F81" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45919</v>
+      </c>
       <c r="G81" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="F82" s="2"/>
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="F83" s="2"/>
+      <c r="A83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
@@ -4382,13 +4559,13 @@
         <v>17</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2">
         <v>45919</v>
@@ -4405,13 +4582,13 @@
         <v>17</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2">
         <v>45919</v>
@@ -4428,13 +4605,13 @@
         <v>17</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
         <v>45919</v>
@@ -4451,13 +4628,13 @@
         <v>17</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2">
         <v>45919</v>
@@ -4474,13 +4651,13 @@
         <v>17</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2">
         <v>45919</v>
@@ -4497,43 +4674,21 @@
         <v>17</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" s="2">
-        <v>45919</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F90" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
@@ -4543,16 +4698,16 @@
         <v>17</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F91" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
@@ -4566,16 +4721,16 @@
         <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F92" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>13</v>
@@ -4589,32 +4744,112 @@
         <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="F94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="F95" s="2"/>
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="F96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="F97" s="2"/>
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
@@ -4624,16 +4859,16 @@
         <v>17</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>13</v>
@@ -4647,16 +4882,16 @@
         <v>17</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>13</v>
@@ -4670,66 +4905,24 @@
         <v>17</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F100" s="2">
-        <v>45912</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="1" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F101" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F102" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
@@ -4739,16 +4932,16 @@
         <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>13</v>
@@ -4762,16 +4955,16 @@
         <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F104" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>13</v>
@@ -4785,16 +4978,16 @@
         <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>13</v>
@@ -4808,16 +5001,16 @@
         <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>13</v>
@@ -4831,45 +5024,85 @@
         <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F107" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" s="6" customFormat="1">
-      <c r="F109" s="7"/>
+      <c r="A108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>13</v>
@@ -4880,19 +5113,19 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>13</v>
@@ -4903,114 +5136,54 @@
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F113" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="4" customFormat="1">
-      <c r="F114" s="5"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F115" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F116" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>13</v>
@@ -5021,19 +5194,19 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F118" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>13</v>
@@ -5044,19 +5217,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>13</v>
@@ -5067,19 +5240,19 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="F120" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>13</v>
@@ -5090,19 +5263,19 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="F121" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>13</v>
@@ -5113,19 +5286,19 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F122" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>13</v>
@@ -5136,19 +5309,19 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F123" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>13</v>
@@ -5159,19 +5332,19 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F124" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>13</v>
@@ -5182,16 +5355,22 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>61</v>
+        <v>124</v>
+      </c>
+      <c r="F125" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5199,79 +5378,45 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
+      </c>
+      <c r="F126" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F127" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F128" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" s="6" customFormat="1">
+      <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F129" s="2">
         <v>45898</v>
@@ -5285,16 +5430,16 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F130" s="2">
         <v>45898</v>
@@ -5308,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
@@ -5317,10 +5462,10 @@
         <v>20</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>13</v>
@@ -5331,7 +5476,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>12</v>
@@ -5340,17 +5485,17 @@
         <v>20</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
-      <c r="F133" s="2"/>
+    <row r="133" spans="1:7" s="4" customFormat="1">
+      <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
@@ -5362,13 +5507,41 @@
       <c r="C134" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E134" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F134" s="2"/>
+      <c r="D134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="F135" s="2"/>
+      <c r="A135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F135" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
@@ -5378,15 +5551,20 @@
         <v>60</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F136" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F136" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
@@ -5396,13 +5574,13 @@
         <v>60</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2">
         <v>45898</v>
@@ -5419,13 +5597,13 @@
         <v>60</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="F138" s="2">
         <v>45898</v>
@@ -5442,13 +5620,13 @@
         <v>60</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F139" s="2">
         <v>45898</v>
@@ -5465,18 +5643,43 @@
         <v>60</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F140" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="F141" s="2"/>
+      <c r="A141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
@@ -5486,23 +5689,43 @@
         <v>60</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="F142" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="F143" s="2"/>
+      <c r="A143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -5512,19 +5735,13 @@
         <v>60</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F144" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5535,19 +5752,13 @@
         <v>60</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F145" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5558,16 +5769,16 @@
         <v>60</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>13</v>
@@ -5581,16 +5792,16 @@
         <v>60</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>13</v>
@@ -5604,16 +5815,16 @@
         <v>60</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
@@ -5627,21 +5838,43 @@
         <v>60</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F149" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45898</v>
+      </c>
       <c r="G149" s="1" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="F150" s="2"/>
+      <c r="A150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
@@ -5651,16 +5884,16 @@
         <v>60</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="F151" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>13</v>
@@ -5677,43 +5910,15 @@
         <v>60</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F153" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F154" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1" t="s">
@@ -5723,20 +5928,15 @@
         <v>60</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F155" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
@@ -5746,16 +5946,16 @@
         <v>60</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F156" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>13</v>
@@ -5769,16 +5969,16 @@
         <v>60</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F157" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>13</v>
@@ -5792,46 +5992,43 @@
         <v>60</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F158" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45898</v>
+      </c>
       <c r="G158" s="1" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F160" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -5839,13 +6036,13 @@
         <v>60</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="F161" s="2">
         <v>45919</v>
@@ -5854,30 +6051,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F162" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+    <row r="162" spans="1:7">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
@@ -5885,22 +6062,22 @@
         <v>60</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -5908,22 +6085,22 @@
         <v>60</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -5931,25 +6108,45 @@
         <v>60</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="F165" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:8">
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F166" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -5957,22 +6154,22 @@
         <v>60</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F167" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -5980,45 +6177,23 @@
         <v>60</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F168" s="2">
-        <v>45912</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F168" s="2"/>
       <c r="G168" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F169" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
@@ -6026,45 +6201,25 @@
         <v>60</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F170" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F171" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+    <row r="171" spans="1:7">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>2</v>
       </c>
@@ -6072,22 +6227,22 @@
         <v>60</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F172" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>2</v>
       </c>
@@ -6095,22 +6250,22 @@
         <v>60</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F173" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
@@ -6118,25 +6273,22 @@
         <v>60</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F174" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -6144,22 +6296,22 @@
         <v>60</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F175" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
@@ -6167,7 +6319,7 @@
         <v>60</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>19</v>
@@ -6175,7 +6327,12 @@
       <c r="E176" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F176" s="2"/>
+      <c r="F176" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -6185,7 +6342,7 @@
         <v>60</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>19</v>
@@ -6194,37 +6351,54 @@
         <v>109</v>
       </c>
       <c r="F177" s="2"/>
+      <c r="G177" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="4"/>
+      <c r="A179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F179" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F180" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>13</v>
@@ -6235,19 +6409,19 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F181" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>13</v>
@@ -6258,19 +6432,19 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="F182" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
@@ -6281,19 +6455,19 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F183" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>13</v>
@@ -6304,74 +6478,68 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F184" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F185" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="4"/>
+      <c r="A186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F187" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>13</v>
@@ -6382,19 +6550,19 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F188" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>13</v>
@@ -6405,19 +6573,19 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F189" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>13</v>
@@ -6428,19 +6596,19 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F190" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>13</v>
@@ -6451,19 +6619,19 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="F191" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>13</v>
@@ -6474,280 +6642,283 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F192" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F193" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F194" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="F195" s="2"/>
-      <c r="G195" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F196" s="2"/>
-      <c r="G196" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F197" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F198" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+    </row>
+    <row r="197" spans="1:8">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F199" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F200" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F201" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F200" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="F201" s="2"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="F202" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="F203" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F204" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="1:7">
+    <row r="205" spans="1:8">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F206" s="2">
         <v>45917</v>
@@ -6756,21 +6927,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F207" s="2">
         <v>45917</v>
@@ -6779,21 +6950,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F208" s="2">
         <v>45917</v>
@@ -6807,16 +6978,16 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F209" s="2">
         <v>45917</v>
@@ -6826,26 +6997,80 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="F210" s="2"/>
+      <c r="A210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F210" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="4"/>
+      <c r="A211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F211" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="F212" s="2"/>
+      <c r="A212" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F212" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>12</v>
@@ -6854,69 +7079,95 @@
         <v>19</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F213" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:7">
+      <c r="A214" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F214" s="2"/>
+      <c r="G214" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="F215" s="2"/>
+      <c r="G215" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F216" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="F216" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F217" s="2">
         <v>45917</v>
@@ -6930,7 +7181,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>12</v>
@@ -6939,7 +7190,7 @@
         <v>20</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="F218" s="2">
         <v>45917</v>
@@ -6949,145 +7200,153 @@
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="F219" s="2"/>
+      <c r="A219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F219" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F220" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F221" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="4"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="F222" s="2"/>
+      <c r="A222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F222" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="F223" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F224" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F225" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="F225" s="2">
+        <v>45917</v>
+      </c>
       <c r="G225" s="1" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="F226" s="2"/>
+      <c r="A226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F226" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F227" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>13</v>
@@ -7098,19 +7357,19 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F228" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>13</v>
@@ -7120,7 +7379,13 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="F230" s="2"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="4"/>
     </row>
     <row r="231" spans="1:7">
       <c r="F231" s="2"/>
@@ -7133,13 +7398,13 @@
         <v>147</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F232" s="2">
         <v>45919</v>
@@ -7149,27 +7414,7 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F233" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
@@ -7179,52 +7424,81 @@
         <v>147</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F234" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:7">
+      <c r="A235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="F236" s="2"/>
+      <c r="A236" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F236" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="4"/>
+      <c r="A237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F237" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:7">
@@ -7232,19 +7506,19 @@
         <v>2</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F239" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>13</v>
@@ -7255,65 +7529,45 @@
         <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="F240" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F241" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F242" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>13</v>
@@ -7324,19 +7578,19 @@
         <v>2</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="F243" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>13</v>
@@ -7347,65 +7601,43 @@
         <v>2</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F244" s="2">
-        <v>45924</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F244" s="2"/>
       <c r="G244" s="1" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F245" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="F246" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>13</v>
@@ -7416,150 +7648,155 @@
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="F247" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F248" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E249" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F250" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E251" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F251" s="2"/>
+      <c r="E251" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F251" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E252" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F252" s="2"/>
+      <c r="E252" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F252" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="F253" s="2"/>
+      <c r="A253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F253" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="254" spans="1:7">
       <c r="F254" s="2"/>
     </row>
+    <row r="255" spans="1:7">
+      <c r="F255" s="2"/>
+    </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F256" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G256" s="1" t="s">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F258" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G258" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7568,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>12</v>
@@ -7577,10 +7814,10 @@
         <v>19</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F259" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>13</v>
@@ -7591,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>12</v>
@@ -7600,10 +7837,10 @@
         <v>19</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F260" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>13</v>
@@ -7614,19 +7851,19 @@
         <v>2</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F261" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>13</v>
@@ -7637,19 +7874,19 @@
         <v>2</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F262" s="2">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>13</v>
@@ -7660,7 +7897,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>12</v>
@@ -7669,18 +7906,342 @@
         <v>19</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F263" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F263" s="2">
+      <c r="C264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F264" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F265" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F266" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F267" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F268" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F269" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F270" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="F273" s="2"/>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F275" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F278" s="2">
         <v>45922</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="G278" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F279" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F280" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F281" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F282" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G282" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7867,7 +8428,7 @@
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>90</v>
@@ -7875,12 +8436,12 @@
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>90</v>
@@ -7888,7 +8449,7 @@
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>90</v>
@@ -7898,4 +8459,19 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727940B2-A403-4C7A-9596-1041737093D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27E7D7-4C7B-432A-B35E-73575AD83C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99B021-EC7F-410A-A752-3E181CC36175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="235">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -170,37 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新中はエラーを返す実装だが、実際は更新と同時に HTTP 待ち受けが終了するので NO RESPONSE となる。</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンチュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ヘルスチェック</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2482,6 +2451,101 @@
     <t>構成１（IRISOHYAMA TM153</t>
     <rPh sb="0" eb="2">
       <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：端末ステータス取得</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "biz_status" が取得できる。</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>状態取得のプロパティ名 opened_at になってない</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "biz_status_at" が取得できる。</t>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "opened_at" が取得できる。</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "open_status" が取得できる。</t>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "soft_update_status" が取得できる。</t>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "open_status" = "expired" が取得できる。</t>
+    <rPh sb="29" eb="31">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  "soft_update_status"  = "updating" が取得できる。</t>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新中はエラーを返す。</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   そのエラーの内容は [ status code : 400 , error code : APP_INSTALLING ]</t>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2490,7 +2554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2534,8 +2598,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2551,6 +2621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,7 +2658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2593,12 +2669,20 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2873,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H282"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -2901,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -2915,19 +2999,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2">
         <v>45925</v>
@@ -2936,24 +3020,24 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F4" s="2">
         <v>45925</v>
@@ -2962,24 +3046,24 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="2">
         <v>45925</v>
@@ -2990,91 +3074,91 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="2">
         <v>45925</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F7" s="2">
         <v>45925</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="2">
         <v>45925</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="2">
         <v>45925</v>
@@ -3083,24 +3167,24 @@
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F10" s="2">
         <v>45925</v>
@@ -3111,19 +3195,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="2">
         <v>45925</v>
@@ -3137,19 +3221,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F13" s="2">
         <v>45925</v>
@@ -3160,19 +3244,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F14" s="2">
         <v>45925</v>
@@ -3183,19 +3267,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="2">
         <v>45925</v>
@@ -3206,91 +3290,91 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="2">
         <v>45925</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F17" s="2">
         <v>45925</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="2">
         <v>45925</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F19" s="2">
         <v>45925</v>
@@ -3299,24 +3383,24 @@
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="F20" s="2">
         <v>45925</v>
@@ -3327,19 +3411,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="2">
         <v>45925</v>
@@ -3368,7 +3452,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -3382,10 +3466,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3399,10 +3483,10 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2">
         <v>45895</v>
@@ -3422,10 +3506,10 @@
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2">
         <v>45895</v>
@@ -3445,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>5</v>
@@ -3468,10 +3552,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2">
         <v>45895</v>
@@ -3491,10 +3575,10 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="F33" s="2">
         <v>45895</v>
@@ -3508,19 +3592,19 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="F34" s="2">
-        <v>45895</v>
+        <v>45926</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -3531,16 +3615,16 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F35" s="2">
         <v>45895</v>
@@ -3554,16 +3638,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2">
         <v>45895</v>
@@ -3577,19 +3661,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="F37" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -3600,16 +3684,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2">
         <v>45896</v>
@@ -3619,46 +3703,46 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="F39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F41" s="2">
         <v>45895</v>
@@ -3668,46 +3752,46 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="F42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F44" s="2">
         <v>45896</v>
@@ -3721,16 +3805,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2">
         <v>45896</v>
@@ -3744,16 +3828,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F46" s="2">
         <v>45896</v>
@@ -3767,19 +3851,19 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -3790,16 +3874,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2">
         <v>45897</v>
@@ -3813,16 +3897,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2">
         <v>45897</v>
@@ -3836,16 +3920,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2">
         <v>45897</v>
@@ -3859,19 +3943,19 @@
         <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>13</v>
@@ -3882,16 +3966,16 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F52" s="2">
         <v>45919</v>
@@ -3901,49 +3985,49 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="F53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -3954,19 +4038,19 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F56" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -3977,16 +4061,16 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2">
         <v>45897</v>
@@ -4000,16 +4084,16 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2">
         <v>45897</v>
@@ -4023,16 +4107,16 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F59" s="2">
         <v>45897</v>
@@ -4046,16 +4130,16 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F60" s="2">
         <v>45897</v>
@@ -4069,16 +4153,16 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F61" s="2">
         <v>45897</v>
@@ -4092,16 +4176,16 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2">
         <v>45897</v>
@@ -4115,16 +4199,16 @@
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2">
         <v>45897</v>
@@ -4138,16 +4222,16 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2">
         <v>45897</v>
@@ -4161,16 +4245,16 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2">
         <v>45897</v>
@@ -4184,19 +4268,19 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F66" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -4207,16 +4291,16 @@
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2">
         <v>45898</v>
@@ -4226,46 +4310,46 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="F68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2">
         <v>45919</v>
@@ -4279,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2">
         <v>45919</v>
@@ -4302,16 +4386,16 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2">
         <v>45919</v>
@@ -4325,16 +4409,16 @@
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2">
         <v>45919</v>
@@ -4348,16 +4432,16 @@
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2">
         <v>45919</v>
@@ -4371,16 +4455,16 @@
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2">
         <v>45919</v>
@@ -4394,16 +4478,16 @@
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F76" s="2">
         <v>45919</v>
@@ -4417,16 +4501,16 @@
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2">
         <v>45919</v>
@@ -4440,63 +4524,63 @@
         <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F80" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2">
         <v>45919</v>
@@ -4510,16 +4594,16 @@
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F82" s="2">
         <v>45919</v>
@@ -4533,16 +4617,16 @@
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2">
         <v>45919</v>
@@ -4556,16 +4640,16 @@
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F84" s="2">
         <v>45919</v>
@@ -4579,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2">
         <v>45919</v>
@@ -4602,16 +4686,16 @@
         <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2">
         <v>45919</v>
@@ -4625,16 +4709,16 @@
         <v>2</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F87" s="2">
         <v>45919</v>
@@ -4648,16 +4732,16 @@
         <v>2</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2">
         <v>45919</v>
@@ -4671,63 +4755,63 @@
         <v>2</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2">
         <v>45911</v>
@@ -4741,16 +4825,16 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F93" s="2">
         <v>45911</v>
@@ -4764,16 +4848,16 @@
         <v>2</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2">
         <v>45911</v>
@@ -4787,16 +4871,16 @@
         <v>2</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F95" s="2">
         <v>45911</v>
@@ -4810,16 +4894,16 @@
         <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F96" s="2">
         <v>45911</v>
@@ -4833,16 +4917,16 @@
         <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2">
         <v>45911</v>
@@ -4856,16 +4940,16 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F98" s="2">
         <v>45911</v>
@@ -4879,16 +4963,16 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2">
         <v>45911</v>
@@ -4902,66 +4986,66 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45911</v>
+      </c>
       <c r="G100" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F101" s="2"/>
+      <c r="G101" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="102" spans="1:7">
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F103" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2">
         <v>45919</v>
@@ -4975,16 +5059,16 @@
         <v>2</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F105" s="2">
         <v>45919</v>
@@ -4998,16 +5082,16 @@
         <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2">
         <v>45919</v>
@@ -5021,16 +5105,16 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2">
         <v>45919</v>
@@ -5044,16 +5128,16 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F108" s="2">
         <v>45919</v>
@@ -5067,16 +5151,16 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F109" s="2">
         <v>45919</v>
@@ -5090,16 +5174,16 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2">
         <v>45919</v>
@@ -5113,16 +5197,16 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F111" s="2">
         <v>45919</v>
@@ -5136,16 +5220,16 @@
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F112" s="2">
         <v>45919</v>
@@ -5155,7 +5239,27 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="F113" s="2"/>
+      <c r="A113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="114" spans="1:7">
       <c r="F114" s="2"/>
@@ -5167,43 +5271,23 @@
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F117" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="F118" s="2">
         <v>45912</v>
@@ -5217,16 +5301,16 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F119" s="2">
         <v>45912</v>
@@ -5240,16 +5324,16 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F120" s="2">
         <v>45912</v>
@@ -5263,16 +5347,16 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2">
         <v>45912</v>
@@ -5286,16 +5370,16 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="F122" s="2">
         <v>45912</v>
@@ -5309,16 +5393,16 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F123" s="2">
         <v>45912</v>
@@ -5332,16 +5416,16 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F124" s="2">
         <v>45912</v>
@@ -5355,16 +5439,16 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F125" s="2">
         <v>45912</v>
@@ -5378,16 +5462,16 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F126" s="2">
         <v>45912</v>
@@ -5397,49 +5481,49 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" s="6" customFormat="1">
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F129" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F127" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" s="6" customFormat="1">
+      <c r="F129" s="7"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F130" s="2">
         <v>45898</v>
@@ -5453,16 +5537,16 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2">
         <v>45898</v>
@@ -5476,16 +5560,16 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F132" s="2">
         <v>45898</v>
@@ -5494,47 +5578,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="4" customFormat="1">
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="1" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F134" s="2">
+      <c r="D133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F133" s="2">
         <v>45898</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="4" customFormat="1">
+      <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F135" s="2">
         <v>45898</v>
@@ -5548,16 +5632,16 @@
         <v>2</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F136" s="2">
         <v>45898</v>
@@ -5571,16 +5655,16 @@
         <v>2</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2">
         <v>45898</v>
@@ -5594,16 +5678,16 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F138" s="2">
         <v>45898</v>
@@ -5617,16 +5701,16 @@
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F139" s="2">
         <v>45898</v>
@@ -5640,16 +5724,16 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F140" s="2">
         <v>45898</v>
@@ -5663,16 +5747,16 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2">
         <v>45898</v>
@@ -5686,16 +5770,16 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F142" s="2">
         <v>45898</v>
@@ -5709,16 +5793,16 @@
         <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F143" s="2">
         <v>45898</v>
@@ -5732,16 +5816,22 @@
         <v>2</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5749,16 +5839,16 @@
         <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5766,36 +5856,30 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F146" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>62</v>
@@ -5812,16 +5896,16 @@
         <v>2</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2">
         <v>45898</v>
@@ -5835,16 +5919,16 @@
         <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2">
         <v>45898</v>
@@ -5858,19 +5942,19 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>13</v>
@@ -5881,16 +5965,16 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F151" s="2">
         <v>45911</v>
@@ -5900,42 +5984,47 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="F152" s="2"/>
+      <c r="A152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E153" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="E154" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:7">
@@ -5943,39 +6032,34 @@
         <v>2</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F156" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F157" s="2">
         <v>45898</v>
@@ -5989,16 +6073,16 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F158" s="2">
         <v>45898</v>
@@ -6012,86 +6096,86 @@
         <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F159" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F161" s="2">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162" s="2">
         <v>45919</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="F162" s="2"/>
+      <c r="G162" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F163" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F164" s="2">
         <v>45911</v>
@@ -6105,16 +6189,16 @@
         <v>2</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F165" s="2">
         <v>45911</v>
@@ -6128,16 +6212,16 @@
         <v>2</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F166" s="2">
         <v>45911</v>
@@ -6151,16 +6235,16 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F167" s="2">
         <v>45911</v>
@@ -6174,89 +6258,89 @@
         <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F168" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="F168" s="2">
+        <v>45911</v>
+      </c>
       <c r="G168" s="1" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F169" s="2"/>
+      <c r="G169" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F170" s="2">
+      <c r="F171" s="2">
         <v>45919</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="F171" s="2"/>
+      <c r="G171" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F172" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F173" s="2">
         <v>45911</v>
@@ -6270,16 +6354,16 @@
         <v>2</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F174" s="2">
         <v>45911</v>
@@ -6293,16 +6377,16 @@
         <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F175" s="2">
         <v>45911</v>
@@ -6316,16 +6400,16 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F176" s="2">
         <v>45911</v>
@@ -6339,63 +6423,63 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F177" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="F177" s="2">
+        <v>45911</v>
+      </c>
       <c r="G177" s="1" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F178" s="2"/>
+      <c r="G178" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F179" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F180" s="2">
         <v>45919</v>
@@ -6409,16 +6493,16 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F181" s="2">
         <v>45919</v>
@@ -6432,16 +6516,16 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F182" s="2">
         <v>45919</v>
@@ -6455,16 +6539,16 @@
         <v>2</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F183" s="2">
         <v>45919</v>
@@ -6478,16 +6562,16 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="F184" s="2">
         <v>45919</v>
@@ -6497,46 +6581,46 @@
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="F185" s="2"/>
+      <c r="A185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F185" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F186" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F187" s="2">
         <v>45912</v>
@@ -6550,16 +6634,16 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F188" s="2">
         <v>45912</v>
@@ -6573,16 +6657,16 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F189" s="2">
         <v>45912</v>
@@ -6596,16 +6680,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F190" s="2">
         <v>45912</v>
@@ -6619,16 +6703,16 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F191" s="2">
         <v>45912</v>
@@ -6642,16 +6726,16 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F192" s="2">
         <v>45912</v>
@@ -6665,16 +6749,16 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F193" s="2">
         <v>45912</v>
@@ -6682,25 +6766,22 @@
       <c r="G193" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H193" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F194" s="2">
         <v>45912</v>
@@ -6708,93 +6789,96 @@
       <c r="G194" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H194" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F195" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="F195" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:8">
+      <c r="A197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="4"/>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F199" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="4"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F200" s="2">
         <v>45911</v>
@@ -6808,16 +6892,16 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F201" s="2">
         <v>45911</v>
@@ -6831,16 +6915,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F202" s="2">
         <v>45911</v>
@@ -6854,16 +6938,16 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F203" s="2">
         <v>45911</v>
@@ -6877,16 +6961,16 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F204" s="2">
         <v>45911</v>
@@ -6896,52 +6980,52 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="4"/>
+      <c r="A205" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F205" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F206" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="4"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F207" s="2">
         <v>45917</v>
@@ -6955,16 +7039,16 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F208" s="2">
         <v>45917</v>
@@ -6978,16 +7062,16 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F209" s="2">
         <v>45917</v>
@@ -7001,16 +7085,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F210" s="2">
         <v>45917</v>
@@ -7024,16 +7108,16 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F211" s="2">
         <v>45917</v>
@@ -7047,16 +7131,16 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F212" s="2">
         <v>45917</v>
@@ -7070,16 +7154,16 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F213" s="2">
         <v>45917</v>
@@ -7093,20 +7177,22 @@
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F214" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="F214" s="2">
+        <v>45917</v>
+      </c>
       <c r="G214" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7114,20 +7200,20 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7135,22 +7221,20 @@
         <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F216" s="2">
-        <v>45917</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F216" s="2"/>
       <c r="G216" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7158,16 +7242,16 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F217" s="2">
         <v>45917</v>
@@ -7181,16 +7265,16 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="F218" s="2">
         <v>45917</v>
@@ -7204,16 +7288,16 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F219" s="2">
         <v>45917</v>
@@ -7223,55 +7307,55 @@
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="F220" s="2"/>
+      <c r="A220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F220" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="4"/>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F222" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="4"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F223" s="2">
         <v>45917</v>
@@ -7281,46 +7365,46 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="F224" s="2"/>
+      <c r="A224" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F224" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F225" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F226" s="2">
         <v>45917</v>
@@ -7334,16 +7418,16 @@
         <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F227" s="2">
         <v>45917</v>
@@ -7357,16 +7441,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F228" s="2">
         <v>45917</v>
@@ -7376,62 +7460,67 @@
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="F229" s="2"/>
+      <c r="A229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F229" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="4"/>
+      <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="F231" s="2"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="4"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C232" s="1" t="s">
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F232" s="2">
+      <c r="D233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F233" s="2">
         <v>45919</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="F233" s="2"/>
+      <c r="G233" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:7">
@@ -7439,16 +7528,16 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F235" s="2"/>
     </row>
@@ -7457,39 +7546,34 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F236" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F237" s="2">
         <v>45917</v>
@@ -7499,46 +7583,46 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="F238" s="2"/>
+      <c r="A238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F238" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F239" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F240" s="2">
         <v>45919</v>
@@ -7548,46 +7632,46 @@
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="F241" s="2"/>
+      <c r="A241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F241" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F242" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F243" s="2">
         <v>45919</v>
@@ -7601,63 +7685,63 @@
         <v>2</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C244" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F244" s="2"/>
+      <c r="F244" s="2">
+        <v>45919</v>
+      </c>
       <c r="G244" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="D245" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F245" s="2"/>
+      <c r="G245" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F246" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F247" s="2">
         <v>45919</v>
@@ -7667,7 +7751,27 @@
       </c>
     </row>
     <row r="248" spans="1:7">
-      <c r="F248" s="2"/>
+      <c r="A248" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F248" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="249" spans="1:7">
       <c r="F249" s="2"/>
@@ -7676,43 +7780,23 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F251" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F252" s="2">
         <v>45919</v>
@@ -7726,16 +7810,16 @@
         <v>2</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F253" s="2">
         <v>45919</v>
@@ -7745,53 +7829,58 @@
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="F254" s="2"/>
+      <c r="A254" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F254" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="4"/>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F257" s="2"/>
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F258" s="2">
         <v>45924</v>
@@ -7805,16 +7894,16 @@
         <v>2</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F259" s="2">
         <v>45924</v>
@@ -7828,16 +7917,16 @@
         <v>2</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F260" s="2">
         <v>45924</v>
@@ -7851,16 +7940,16 @@
         <v>2</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F261" s="2">
         <v>45924</v>
@@ -7874,16 +7963,16 @@
         <v>2</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F262" s="2">
         <v>45924</v>
@@ -7897,16 +7986,16 @@
         <v>2</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F263" s="2">
         <v>45924</v>
@@ -7920,16 +8009,16 @@
         <v>2</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F264" s="2">
         <v>45924</v>
@@ -7943,16 +8032,16 @@
         <v>2</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F265" s="2">
         <v>45924</v>
@@ -7966,16 +8055,16 @@
         <v>2</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F266" s="2">
         <v>45924</v>
@@ -7989,16 +8078,16 @@
         <v>2</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F267" s="2">
         <v>45924</v>
@@ -8012,19 +8101,19 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E268" s="8" t="s">
-        <v>202</v>
+        <v>18</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F268" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>13</v>
@@ -8035,19 +8124,19 @@
         <v>2</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E269" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" s="10" t="s">
         <v>201</v>
       </c>
       <c r="F269" s="2">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>13</v>
@@ -8058,19 +8147,19 @@
         <v>2</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E270" s="8" t="s">
-        <v>203</v>
+        <v>18</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="F270" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>13</v>
@@ -8081,160 +8170,367 @@
         <v>2</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E271" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F271" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F271" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E272" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:7">
       <c r="F273" s="2"/>
     </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F274" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B275" s="1" t="s">
+      <c r="A275" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F275" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F276" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F277" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F278" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F279" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F280" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F281" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G281" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D283" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F275" s="2">
+      <c r="F283" s="2">
         <v>45898</v>
       </c>
-      <c r="G275" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B278" s="1" t="s">
+      <c r="G283" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="F286" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E278" s="1" t="s">
+      <c r="D287" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F287" s="2">
         <v>45922</v>
       </c>
-      <c r="G278" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C279" s="1" t="s">
+      <c r="G287" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E279" s="1" t="s">
+      <c r="D288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F288" s="2">
         <v>45922</v>
       </c>
-      <c r="G279" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C280" s="1" t="s">
+      <c r="G288" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E280" s="1" t="s">
+      <c r="D289" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F289" s="2">
         <v>45922</v>
       </c>
-      <c r="G280" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="G289" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F281" s="2">
+      <c r="D290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F290" s="2">
         <v>45922</v>
       </c>
-      <c r="G281" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F282" s="2">
-        <v>45922</v>
-      </c>
-      <c r="G282" s="1" t="s">
+      <c r="G290" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8247,10 +8543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8260,110 +8556,110 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D21)</f>
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
         <v>89</v>
-      </c>
-      <c r="J11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="D13" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -8371,12 +8667,12 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -8384,12 +8680,12 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -8397,12 +8693,12 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="D16" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -8410,12 +8706,12 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -8423,36 +8719,41 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99B021-EC7F-410A-A752-3E181CC36175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8638A-7EEF-434F-A71F-83A0FDD4BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="242">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2546,6 +2546,97 @@
     <t xml:space="preserve">   そのエラーの内容は [ status code : 400 , error code : APP_INSTALLING ]</t>
     <rPh sb="9" eb="11">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：再開局</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイカイキョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fix: 再開局で業務状態までリセットされる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再開局が処理される.</t>
+    <rPh sb="0" eb="3">
+      <t>サイカイキョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  これによって、自動閉局された状態が解除され、決済機能が使える</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘイキョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務開始済でない場合、エラーを返す。</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムカイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : INVALID_BIZ_STATUS ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開局処理実行中なら、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2957,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E269" sqref="E269"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -8401,21 +8492,67 @@
         <v>2</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="F283" s="2">
-        <v>45898</v>
+        <v>45926</v>
       </c>
       <c r="G283" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F284" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F285" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8424,19 +8561,19 @@
         <v>2</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="F286" s="2">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>13</v>
@@ -8447,19 +8584,19 @@
         <v>2</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="F287" s="2">
-        <v>45922</v>
+        <v>45926</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>13</v>
@@ -8470,7 +8607,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>12</v>
@@ -8479,58 +8616,156 @@
         <v>19</v>
       </c>
       <c r="E288" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F288" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F291" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F294" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F295" s="2">
+        <v>45922</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F296" s="2">
         <v>45922</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="1" t="s">
+      <c r="G296" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E289" s="1" t="s">
+      <c r="D297" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F297" s="2">
         <v>45922</v>
       </c>
-      <c r="G289" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B290" s="1" t="s">
+      <c r="G297" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E290" s="1" t="s">
+      <c r="D298" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F298" s="2">
         <v>45922</v>
       </c>
-      <c r="G290" s="1" t="s">
+      <c r="G298" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8543,10 +8778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8754,6 +8989,17 @@
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
         <v>226</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8638A-7EEF-434F-A71F-83A0FDD4BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5172A12-6E6D-49BD-9EEE-5D35D6C5CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3050,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -8488,140 +8488,140 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:7">
-      <c r="A283" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B283" s="1" t="s">
+      <c r="A283" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E283" s="1" t="s">
+      <c r="D283" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E283" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283" s="12">
         <v>45926</v>
       </c>
-      <c r="G283" s="1" t="s">
+      <c r="G283" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B284" s="1" t="s">
+      <c r="A284" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C284" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E284" s="1" t="s">
+      <c r="D284" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E284" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284" s="12">
         <v>45926</v>
       </c>
-      <c r="G284" s="1" t="s">
+      <c r="G284" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B285" s="1" t="s">
+      <c r="A285" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C285" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E285" s="1" t="s">
+      <c r="D285" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285" s="12">
         <v>45926</v>
       </c>
-      <c r="G285" s="1" t="s">
+      <c r="G285" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B286" s="1" t="s">
+      <c r="A286" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E286" s="1" t="s">
+      <c r="D286" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286" s="12">
         <v>45926</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="G286" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B287" s="1" t="s">
+      <c r="A287" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="C287" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E287" s="1" t="s">
+      <c r="D287" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287" s="12">
         <v>45926</v>
       </c>
-      <c r="G287" s="1" t="s">
+      <c r="G287" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:7">
-      <c r="A288" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B288" s="1" t="s">
+      <c r="A288" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C288" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E288" s="1" t="s">
+      <c r="D288" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288" s="12">
         <v>45926</v>
       </c>
-      <c r="G288" s="1" t="s">
+      <c r="G288" s="11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5172A12-6E6D-49BD-9EEE-5D35D6C5CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F198C6F-5E60-4C9E-B73E-7879E1F44A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="253">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2637,6 +2637,137 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：業務終了</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ギョウムシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>show_confirm : true で送信すると、ダイアログが表示される。No で何もしない</t>
+    <rPh sb="21" eb="23">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済待機中に処理した場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タイキチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  そのエラーの内容は [ status code : 400 , error code : SHUTDOWN_NOT_ALLOWED ]</t>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残照中に処理した場合、エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>ザンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　Yes ならシャットダウンされる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>show_confirm : false で送信すると、即シャットダウンされる</t>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edy, nanaco, quicpay の日計処理が実行される。</t>
+    <rPh sb="22" eb="24">
+      <t>ニッケイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：チャージ</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済アプリのOKICA機能とセットで動作することが前提のため対象外</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2696,7 +2827,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2718,6 +2849,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2749,7 +2886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2763,6 +2900,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3048,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -8629,143 +8768,356 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:7">
-      <c r="F290" s="2"/>
+      <c r="A290" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F290" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G290" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B291" s="1" t="s">
+      <c r="A291" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F291" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F292" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F293" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F294" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F295" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F296" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F297" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G297" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E291" s="1" t="s">
+      <c r="D300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F300" s="2">
         <v>45898</v>
       </c>
-      <c r="G291" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B294" s="1" t="s">
+      <c r="G300" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C302" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F302" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G302" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E294" s="1" t="s">
+      <c r="C304" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E304" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F304" s="12">
         <v>45922</v>
       </c>
-      <c r="G294" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B295" s="1" t="s">
+      <c r="G304" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B305" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E295" s="1" t="s">
+      <c r="C305" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E305" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F305" s="12">
         <v>45922</v>
       </c>
-      <c r="G295" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B296" s="1" t="s">
+      <c r="G305" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E296" s="1" t="s">
+      <c r="C306" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F306" s="12">
         <v>45922</v>
       </c>
-      <c r="G296" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B297" s="1" t="s">
+      <c r="G306" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E297" s="1" t="s">
+      <c r="C307" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F307" s="12">
         <v>45922</v>
       </c>
-      <c r="G297" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B298" s="1" t="s">
+      <c r="G307" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E298" s="1" t="s">
+      <c r="C308" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E308" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F308" s="12">
         <v>45922</v>
       </c>
-      <c r="G298" s="1" t="s">
+      <c r="G308" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8781,7 +9133,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F198C6F-5E60-4C9E-B73E-7879E1F44A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59438B80-0668-4EF7-A176-8180B6DB93F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="不具合" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="255">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1059,33 +1058,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>残高照会</t>
-    <rPh sb="0" eb="2">
-      <t>ザンダカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウカイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http 要求を送信する（QuicPay）</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>QuicPay は利用できない</t>
-    <rPh sb="9" eb="11">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Transaction Screen" という謎の表示がでている</t>
     <rPh sb="24" eb="25">
       <t>ナゾ</t>
@@ -1103,13 +1075,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ものによるので確認中</t>
-    <rPh sb="7" eb="10">
-      <t>カクニンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>取消済の取引が指定された場合、エラーを返す。</t>
     <rPh sb="0" eb="2">
       <t>トリケシ</t>
@@ -2768,6 +2733,78 @@
     </rPh>
     <rPh sb="30" eb="33">
       <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末系：残高照会</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iD , QuicPay は利用できないのでエラーを返す。</t>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（Edy）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（交通系）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウツウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（WAON）</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開局されていない場合エラーを返す。</t>
+    <rPh sb="0" eb="2">
+      <t>カイキョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3187,10 +3224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H308"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3229,19 +3266,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2">
         <v>45925</v>
@@ -3250,24 +3287,24 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F4" s="2">
         <v>45925</v>
@@ -3276,24 +3313,24 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F5" s="2">
         <v>45925</v>
@@ -3304,91 +3341,91 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F6" s="2">
         <v>45925</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F7" s="2">
         <v>45925</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F8" s="2">
         <v>45925</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F9" s="2">
         <v>45925</v>
@@ -3397,24 +3434,24 @@
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F10" s="2">
         <v>45925</v>
@@ -3425,19 +3462,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2">
         <v>45925</v>
@@ -3451,19 +3488,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2">
         <v>45925</v>
@@ -3474,19 +3511,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F14" s="2">
         <v>45925</v>
@@ -3497,19 +3534,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F15" s="2">
         <v>45925</v>
@@ -3520,91 +3557,91 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F16" s="2">
         <v>45925</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="2">
         <v>45925</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2">
         <v>45925</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F19" s="2">
         <v>45925</v>
@@ -3613,24 +3650,24 @@
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2">
         <v>45925</v>
@@ -3641,19 +3678,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F21" s="2">
         <v>45925</v>
@@ -3808,7 +3845,7 @@
         <v>19</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F33" s="2">
         <v>45895</v>
@@ -3831,7 +3868,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F34" s="2">
         <v>45926</v>
@@ -4205,7 +4242,7 @@
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F52" s="2">
         <v>45919</v>
@@ -4228,7 +4265,7 @@
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2">
         <v>45919</v>
@@ -4573,7 +4610,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
@@ -4596,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>18</v>
@@ -4619,13 +4656,13 @@
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F72" s="2">
         <v>45919</v>
@@ -4642,13 +4679,13 @@
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2">
         <v>45919</v>
@@ -4665,13 +4702,13 @@
         <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2">
         <v>45919</v>
@@ -4688,13 +4725,13 @@
         <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2">
         <v>45919</v>
@@ -4711,13 +4748,13 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2">
         <v>45919</v>
@@ -4734,13 +4771,13 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2">
         <v>45919</v>
@@ -4757,13 +4794,13 @@
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2">
         <v>45919</v>
@@ -4780,17 +4817,17 @@
         <v>16</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4804,7 +4841,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>18</v>
@@ -4827,7 +4864,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>18</v>
@@ -4850,13 +4887,13 @@
         <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2">
         <v>45919</v>
@@ -4873,13 +4910,13 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2">
         <v>45919</v>
@@ -4896,13 +4933,13 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2">
         <v>45919</v>
@@ -4919,13 +4956,13 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2">
         <v>45919</v>
@@ -4942,13 +4979,13 @@
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F87" s="2">
         <v>45919</v>
@@ -4965,13 +5002,13 @@
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F88" s="2">
         <v>45919</v>
@@ -4988,13 +5025,13 @@
         <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F89" s="2">
         <v>45919</v>
@@ -5011,17 +5048,17 @@
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5087,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F94" s="2">
         <v>45911</v>
@@ -5110,7 +5147,7 @@
         <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2">
         <v>45911</v>
@@ -5133,7 +5170,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F96" s="2">
         <v>45911</v>
@@ -5156,7 +5193,7 @@
         <v>19</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2">
         <v>45911</v>
@@ -5179,7 +5216,7 @@
         <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2">
         <v>45911</v>
@@ -5202,7 +5239,7 @@
         <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2">
         <v>45911</v>
@@ -5225,7 +5262,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2">
         <v>45911</v>
@@ -5248,7 +5285,7 @@
         <v>18</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="1" t="s">
@@ -5269,7 +5306,7 @@
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>18</v>
@@ -5292,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>18</v>
@@ -5315,13 +5352,13 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2">
         <v>45919</v>
@@ -5338,13 +5375,13 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2">
         <v>45919</v>
@@ -5361,13 +5398,13 @@
         <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F108" s="2">
         <v>45919</v>
@@ -5384,13 +5421,13 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2">
         <v>45919</v>
@@ -5407,13 +5444,13 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F110" s="2">
         <v>45919</v>
@@ -5430,13 +5467,13 @@
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F111" s="2">
         <v>45919</v>
@@ -5453,13 +5490,13 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F112" s="2">
         <v>45919</v>
@@ -5476,13 +5513,13 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F113" s="2">
         <v>45919</v>
@@ -5511,13 +5548,13 @@
         <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F118" s="2">
         <v>45912</v>
@@ -5534,7 +5571,7 @@
         <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>18</v>
@@ -5557,13 +5594,13 @@
         <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F120" s="2">
         <v>45912</v>
@@ -5580,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F121" s="2">
         <v>45912</v>
@@ -5603,13 +5640,13 @@
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F122" s="2">
         <v>45912</v>
@@ -5626,13 +5663,13 @@
         <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F123" s="2">
         <v>45912</v>
@@ -5649,13 +5686,13 @@
         <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F124" s="2">
         <v>45912</v>
@@ -5672,13 +5709,13 @@
         <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F125" s="2">
         <v>45912</v>
@@ -5695,13 +5732,13 @@
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F126" s="2">
         <v>45912</v>
@@ -5718,13 +5755,13 @@
         <v>16</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F127" s="2">
         <v>45912</v>
@@ -5822,7 +5859,7 @@
         <v>19</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2">
         <v>45898</v>
@@ -6204,7 +6241,7 @@
         <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F151" s="2">
         <v>45911</v>
@@ -6227,7 +6264,7 @@
         <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F152" s="2">
         <v>45911</v>
@@ -6250,7 +6287,7 @@
         <v>12</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -6271,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -6289,7 +6326,7 @@
         <v>19</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F157" s="2">
         <v>45898</v>
@@ -6312,7 +6349,7 @@
         <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F158" s="2">
         <v>45898</v>
@@ -6335,7 +6372,7 @@
         <v>18</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F159" s="2">
         <v>45898</v>
@@ -6358,7 +6395,7 @@
         <v>18</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -6373,13 +6410,13 @@
         <v>59</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F162" s="2">
         <v>45919</v>
@@ -6399,13 +6436,13 @@
         <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F164" s="2">
         <v>45911</v>
@@ -6422,13 +6459,13 @@
         <v>59</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F165" s="2">
         <v>45911</v>
@@ -6445,13 +6482,13 @@
         <v>59</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2">
         <v>45911</v>
@@ -6468,13 +6505,13 @@
         <v>59</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F167" s="2">
         <v>45911</v>
@@ -6491,13 +6528,13 @@
         <v>59</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F168" s="2">
         <v>45911</v>
@@ -6514,17 +6551,17 @@
         <v>59</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6538,13 +6575,13 @@
         <v>59</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F171" s="2">
         <v>45919</v>
@@ -6570,7 +6607,7 @@
         <v>18</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F173" s="2">
         <v>45911</v>
@@ -6593,7 +6630,7 @@
         <v>19</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F174" s="2">
         <v>45911</v>
@@ -6616,7 +6653,7 @@
         <v>19</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F175" s="2">
         <v>45911</v>
@@ -6639,7 +6676,7 @@
         <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F176" s="2">
         <v>45911</v>
@@ -6662,7 +6699,7 @@
         <v>18</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F177" s="2">
         <v>45911</v>
@@ -6685,11 +6722,11 @@
         <v>18</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6703,13 +6740,13 @@
         <v>59</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F180" s="2">
         <v>45919</v>
@@ -6726,13 +6763,13 @@
         <v>59</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F181" s="2">
         <v>45919</v>
@@ -6749,13 +6786,13 @@
         <v>59</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F182" s="2">
         <v>45919</v>
@@ -6772,13 +6809,13 @@
         <v>59</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F183" s="2">
         <v>45919</v>
@@ -6795,13 +6832,13 @@
         <v>59</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F184" s="2">
         <v>45919</v>
@@ -6818,13 +6855,13 @@
         <v>59</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F185" s="2">
         <v>45919</v>
@@ -6844,13 +6881,13 @@
         <v>59</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F187" s="2">
         <v>45912</v>
@@ -6867,13 +6904,13 @@
         <v>59</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F188" s="2">
         <v>45912</v>
@@ -6890,13 +6927,13 @@
         <v>59</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F189" s="2">
         <v>45912</v>
@@ -6913,13 +6950,13 @@
         <v>59</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F190" s="2">
         <v>45912</v>
@@ -6936,13 +6973,13 @@
         <v>59</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F191" s="2">
         <v>45912</v>
@@ -6959,13 +6996,13 @@
         <v>59</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F192" s="2">
         <v>45912</v>
@@ -6982,13 +7019,13 @@
         <v>59</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F193" s="2">
         <v>45912</v>
@@ -7005,13 +7042,13 @@
         <v>59</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F194" s="2">
         <v>45912</v>
@@ -7020,7 +7057,7 @@
         <v>13</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7031,13 +7068,13 @@
         <v>59</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F195" s="2">
         <v>45912</v>
@@ -7054,13 +7091,13 @@
         <v>59</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F196" s="2"/>
     </row>
@@ -7072,13 +7109,13 @@
         <v>59</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F197" s="2"/>
     </row>
@@ -7099,16 +7136,16 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="F200" s="2">
         <v>45911</v>
@@ -7122,7 +7159,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
@@ -7131,7 +7168,7 @@
         <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F201" s="2">
         <v>45911</v>
@@ -7145,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>12</v>
@@ -7168,7 +7205,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>12</v>
@@ -7177,7 +7214,7 @@
         <v>19</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F203" s="2">
         <v>45911</v>
@@ -7191,7 +7228,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>12</v>
@@ -7200,7 +7237,7 @@
         <v>19</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F204" s="2">
         <v>45911</v>
@@ -7214,7 +7251,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>12</v>
@@ -7223,7 +7260,7 @@
         <v>19</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F205" s="2">
         <v>45911</v>
@@ -7246,16 +7283,16 @@
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D207" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F207" s="2">
         <v>45917</v>
@@ -7269,7 +7306,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>12</v>
@@ -7278,7 +7315,7 @@
         <v>18</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F208" s="2">
         <v>45917</v>
@@ -7292,16 +7329,16 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F209" s="2">
         <v>45917</v>
@@ -7315,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>12</v>
@@ -7324,7 +7361,7 @@
         <v>18</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F210" s="2">
         <v>45917</v>
@@ -7338,16 +7375,16 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F211" s="2">
         <v>45917</v>
@@ -7361,7 +7398,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>12</v>
@@ -7370,7 +7407,7 @@
         <v>18</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F212" s="2">
         <v>45917</v>
@@ -7384,16 +7421,16 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F213" s="2">
         <v>45917</v>
@@ -7407,7 +7444,7 @@
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>12</v>
@@ -7416,7 +7453,7 @@
         <v>18</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F214" s="2">
         <v>45917</v>
@@ -7430,16 +7467,16 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="1" t="s">
@@ -7451,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>12</v>
@@ -7460,7 +7497,7 @@
         <v>18</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="1" t="s">
@@ -7472,16 +7509,16 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F217" s="2">
         <v>45917</v>
@@ -7495,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>12</v>
@@ -7504,7 +7541,7 @@
         <v>18</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F218" s="2">
         <v>45917</v>
@@ -7518,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>12</v>
@@ -7541,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>12</v>
@@ -7550,7 +7587,7 @@
         <v>19</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F220" s="2">
         <v>45917</v>
@@ -7576,7 +7613,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>12</v>
@@ -7585,7 +7622,7 @@
         <v>18</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F223" s="2">
         <v>45917</v>
@@ -7599,7 +7636,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>12</v>
@@ -7608,7 +7645,7 @@
         <v>18</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F224" s="2">
         <v>45917</v>
@@ -7625,16 +7662,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F226" s="2">
         <v>45917</v>
@@ -7648,7 +7685,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>12</v>
@@ -7657,7 +7694,7 @@
         <v>19</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F227" s="2">
         <v>45917</v>
@@ -7671,7 +7708,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>12</v>
@@ -7680,7 +7717,7 @@
         <v>19</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F228" s="2">
         <v>45917</v>
@@ -7694,7 +7731,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>12</v>
@@ -7703,7 +7740,7 @@
         <v>19</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F229" s="2">
         <v>45917</v>
@@ -7732,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>12</v>
@@ -7741,7 +7778,7 @@
         <v>18</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F233" s="2">
         <v>45919</v>
@@ -7758,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>12</v>
@@ -7776,7 +7813,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>12</v>
@@ -7794,7 +7831,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>12</v>
@@ -7803,7 +7840,7 @@
         <v>19</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F237" s="2">
         <v>45917</v>
@@ -7817,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>12</v>
@@ -7826,7 +7863,7 @@
         <v>19</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F238" s="2">
         <v>45917</v>
@@ -7843,16 +7880,16 @@
         <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F240" s="2">
         <v>45919</v>
@@ -7866,16 +7903,16 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F241" s="2">
         <v>45919</v>
@@ -7892,16 +7929,16 @@
         <v>2</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F243" s="2">
         <v>45919</v>
@@ -7915,16 +7952,16 @@
         <v>2</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F244" s="2">
         <v>45919</v>
@@ -7938,20 +7975,20 @@
         <v>2</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7962,16 +7999,16 @@
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F247" s="2">
         <v>45919</v>
@@ -7985,16 +8022,16 @@
         <v>2</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F248" s="2">
         <v>45919</v>
@@ -8017,16 +8054,16 @@
         <v>2</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F252" s="2">
         <v>45919</v>
@@ -8040,16 +8077,16 @@
         <v>2</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F253" s="2">
         <v>45919</v>
@@ -8063,16 +8100,16 @@
         <v>2</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F254" s="2">
         <v>45919</v>
@@ -8101,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>12</v>
@@ -8110,7 +8147,7 @@
         <v>18</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F258" s="2">
         <v>45924</v>
@@ -8124,7 +8161,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>12</v>
@@ -8133,7 +8170,7 @@
         <v>18</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F259" s="2">
         <v>45924</v>
@@ -8147,16 +8184,16 @@
         <v>2</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F260" s="2">
         <v>45924</v>
@@ -8170,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>12</v>
@@ -8179,7 +8216,7 @@
         <v>18</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F261" s="2">
         <v>45924</v>
@@ -8193,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>12</v>
@@ -8202,7 +8239,7 @@
         <v>18</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F262" s="2">
         <v>45924</v>
@@ -8216,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>12</v>
@@ -8225,7 +8262,7 @@
         <v>18</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F263" s="2">
         <v>45924</v>
@@ -8239,7 +8276,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>12</v>
@@ -8248,7 +8285,7 @@
         <v>18</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F264" s="2">
         <v>45924</v>
@@ -8262,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>12</v>
@@ -8271,7 +8308,7 @@
         <v>18</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F265" s="2">
         <v>45924</v>
@@ -8285,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>12</v>
@@ -8294,7 +8331,7 @@
         <v>18</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F266" s="2">
         <v>45924</v>
@@ -8308,7 +8345,7 @@
         <v>2</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>12</v>
@@ -8317,7 +8354,7 @@
         <v>18</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F267" s="2">
         <v>45924</v>
@@ -8331,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>12</v>
@@ -8340,7 +8377,7 @@
         <v>18</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F268" s="2">
         <v>45924</v>
@@ -8354,7 +8391,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>12</v>
@@ -8363,7 +8400,7 @@
         <v>18</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F269" s="2">
         <v>45925</v>
@@ -8377,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>12</v>
@@ -8386,7 +8423,7 @@
         <v>18</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F270" s="2">
         <v>45924</v>
@@ -8400,7 +8437,7 @@
         <v>2</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>12</v>
@@ -8409,7 +8446,7 @@
         <v>18</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F271" s="2">
         <v>45925</v>
@@ -8423,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>12</v>
@@ -8431,10 +8468,15 @@
       <c r="D272" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E272" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F272" s="2"/>
+      <c r="E272" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F272" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="273" spans="1:7">
       <c r="F273" s="2"/>
@@ -8444,7 +8486,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>12</v>
@@ -8453,7 +8495,7 @@
         <v>18</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F274" s="12">
         <v>45926</v>
@@ -8467,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>12</v>
@@ -8476,7 +8518,7 @@
         <v>18</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F275" s="12">
         <v>45926</v>
@@ -8490,7 +8532,7 @@
         <v>2</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>12</v>
@@ -8499,7 +8541,7 @@
         <v>18</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F276" s="12">
         <v>45926</v>
@@ -8513,7 +8555,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>12</v>
@@ -8522,7 +8564,7 @@
         <v>18</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F277" s="12">
         <v>45926</v>
@@ -8536,16 +8578,16 @@
         <v>2</v>
       </c>
       <c r="B278" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D278" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="F278" s="12">
         <v>45926</v>
@@ -8559,7 +8601,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>12</v>
@@ -8568,7 +8610,7 @@
         <v>18</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F279" s="12">
         <v>45926</v>
@@ -8582,7 +8624,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>12</v>
@@ -8591,7 +8633,7 @@
         <v>18</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F280" s="12">
         <v>45926</v>
@@ -8605,7 +8647,7 @@
         <v>2</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>12</v>
@@ -8614,7 +8656,7 @@
         <v>18</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F281" s="12">
         <v>45926</v>
@@ -8631,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>12</v>
@@ -8640,7 +8682,7 @@
         <v>18</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F283" s="12">
         <v>45926</v>
@@ -8654,7 +8696,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>12</v>
@@ -8663,7 +8705,7 @@
         <v>18</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F284" s="12">
         <v>45926</v>
@@ -8677,16 +8719,16 @@
         <v>2</v>
       </c>
       <c r="B285" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E285" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="F285" s="12">
         <v>45926</v>
@@ -8700,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>12</v>
@@ -8709,7 +8751,7 @@
         <v>19</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F286" s="12">
         <v>45926</v>
@@ -8723,7 +8765,7 @@
         <v>2</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>12</v>
@@ -8732,7 +8774,7 @@
         <v>19</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F287" s="12">
         <v>45926</v>
@@ -8746,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>12</v>
@@ -8772,7 +8814,7 @@
         <v>2</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>12</v>
@@ -8781,7 +8823,7 @@
         <v>18</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F290" s="12">
         <v>45926</v>
@@ -8795,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>12</v>
@@ -8804,7 +8846,7 @@
         <v>18</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F291" s="12">
         <v>45926</v>
@@ -8818,7 +8860,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>12</v>
@@ -8827,7 +8869,7 @@
         <v>18</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F292" s="12">
         <v>45926</v>
@@ -8841,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>12</v>
@@ -8850,7 +8892,7 @@
         <v>18</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F293" s="12">
         <v>45926</v>
@@ -8864,7 +8906,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>12</v>
@@ -8873,7 +8915,7 @@
         <v>19</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F294" s="12">
         <v>45926</v>
@@ -8887,7 +8929,7 @@
         <v>2</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>12</v>
@@ -8896,7 +8938,7 @@
         <v>19</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F295" s="12">
         <v>45926</v>
@@ -8910,16 +8952,16 @@
         <v>2</v>
       </c>
       <c r="B296" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="C296" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E296" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="F296" s="12">
         <v>45926</v>
@@ -8933,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>12</v>
@@ -8942,7 +8984,7 @@
         <v>19</v>
       </c>
       <c r="E297" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F297" s="12">
         <v>45926</v>
@@ -8960,164 +9002,305 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:7">
+      <c r="A299" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F300" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A300" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D300" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:7">
-      <c r="A302" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B302" s="14" t="s">
+      <c r="A302" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D302" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B303" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D303" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C302" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D302" s="14"/>
-      <c r="E302" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="F302" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G302" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B304" s="11" t="s">
+      <c r="F304" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F305" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F306" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F307" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D309" s="14"/>
+      <c r="E309" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G309" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F311" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G311" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F312" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E313" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F313" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G313" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E314" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C304" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E304" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F304" s="12">
+      <c r="F314" s="12">
         <v>45922</v>
       </c>
-      <c r="G304" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B305" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E305" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F305" s="12">
+      <c r="G314" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F315" s="12">
         <v>45922</v>
       </c>
-      <c r="G305" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E306" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F306" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G306" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B307" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F307" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G307" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B308" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C308" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D308" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F308" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G308" s="11" t="s">
+      <c r="G315" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9133,7 +9316,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9146,14 +9329,14 @@
         <v>68</v>
       </c>
       <c r="B1" s="3">
-        <f>COUNTA(D1:D21)</f>
-        <v>21</v>
+        <f>COUNTA(D1:D30)</f>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9161,7 +9344,7 @@
         <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9169,7 +9352,7 @@
         <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9177,7 +9360,7 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9185,7 +9368,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9193,7 +9376,7 @@
         <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9201,7 +9384,7 @@
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9209,7 +9392,7 @@
         <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9217,7 +9400,7 @@
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9225,28 +9408,28 @@
         <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="D12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="D13" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -9254,12 +9437,12 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -9267,12 +9450,12 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -9280,12 +9463,12 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="D16" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -9293,12 +9476,12 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -9306,71 +9489,56 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727940B2-A403-4C7A-9596-1041737093D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59438B80-0668-4EF7-A176-8180B6DB93F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5B60D-65F4-4700-98EF-E09606C5331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,34 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>吉澤 和也</author>
-  </authors>
-  <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{1077CD76-762C-4126-A9B0-4918FF1154D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Android ソフトで mDNS名に対する通信を許可する。
-HTTPクライアントをmDNS対応。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="235">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1790,17 +1764,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ネットワーク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>任意のAPIをコールする</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>レシートが出力される順序は "加盟店控え"  "お客様控え" である。(suica 確認)</t>
     <rPh sb="5" eb="7">
       <t>シュツリョク</t>
@@ -2247,176 +2210,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>構成１でのAPI疎通ができる（タブレット→決済端末）</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソツウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タンマツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ネットワーク確認</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>決済端末はインターネット疎通できる</t>
-    <rPh sb="0" eb="2">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ソツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タブレットはインターネット疎通できる</t>
-    <rPh sb="13" eb="15">
-      <t>ソツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タブレット１のAndroid バージョンは 15、デフォルトで http 通信が禁止。</t>
-    <rPh sb="37" eb="39">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対応策</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Lenovo Tab M11 は Wifiテザリングの機能がない</t>
-    <rPh sb="27" eb="29">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成２でのAPI疎通ができる（タブレット→決済端末）</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソツウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケッサイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タンマツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タブレットは WI-FI 繋ぎながら イーサネットテザリング</t>
-    <rPh sb="13" eb="14">
-      <t>ツナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成３でのAPI疎通ができる（タブレット→決済端末）</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成１（Lenovo Tab B11</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成２（Lenovo Tab B11</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成３（Lenovo Tab B11</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イーサネットテザリングは "設定を検索" で直接いける（メニューにない）</t>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>チョクセツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成３（IRISOHYAMA TM153</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成２（IRISOHYAMA TM153</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IRISOHYAMA TM153 は Wifiテザリングの機能がない</t>
-    <rPh sb="29" eb="31">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成１（IRISOHYAMA TM153</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2805,6 +2599,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>接続</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2813,7 +2614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2848,14 +2649,6 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2934,7 +2727,7 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3223,11 +3016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H315"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3241,7 +3034,7 @@
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3264,565 +3057,608 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="2" spans="1:7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>45895</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2">
-        <v>45925</v>
+        <v>45895</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F11" s="2">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2">
-        <v>45925</v>
+        <v>45895</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
-        <v>45925</v>
+        <v>45895</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2">
-        <v>45925</v>
+        <v>45896</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>45896</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
-        <v>45925</v>
+        <v>45895</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
-        <v>45925</v>
+        <v>45895</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
-        <v>45925</v>
+        <v>45896</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="F24" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="F29" s="2">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="F30" s="2">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    <row r="31" spans="1:7">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2">
         <v>45895</v>
@@ -3836,19 +3672,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -3859,19 +3695,19 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2">
-        <v>45926</v>
+        <v>45897</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -3882,19 +3718,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F35" s="2">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -3905,19 +3741,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -3928,19 +3764,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -3951,19 +3787,19 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -3974,45 +3810,65 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="F40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -4023,26 +3879,46 @@
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="F43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
@@ -4052,16 +3928,16 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -4075,43 +3951,23 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
@@ -4121,16 +3977,16 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F47" s="2">
-        <v>45896</v>
+        <v>45919</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -4144,16 +4000,16 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F48" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
@@ -4167,16 +4023,16 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="F49" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>13</v>
@@ -4190,16 +4046,16 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F50" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>13</v>
@@ -4213,16 +4069,16 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F51" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>13</v>
@@ -4236,13 +4092,13 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="F52" s="2">
         <v>45919</v>
@@ -4259,13 +4115,13 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="F53" s="2">
         <v>45919</v>
@@ -4275,7 +4131,27 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="F54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
@@ -4285,16 +4161,16 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F55" s="2">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -4308,43 +4184,21 @@
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="2">
-        <v>45896</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F57" s="2">
-        <v>45897</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
@@ -4354,16 +4208,16 @@
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -4377,16 +4231,16 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F59" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
@@ -4400,16 +4254,16 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F60" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>13</v>
@@ -4423,16 +4277,16 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -4446,16 +4300,16 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F62" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -4469,16 +4323,16 @@
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
@@ -4492,16 +4346,16 @@
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F64" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -4515,16 +4369,16 @@
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F65" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
@@ -4538,16 +4392,16 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -4561,46 +4415,44 @@
         <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="2">
-        <v>45898</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="F69" s="2"/>
+      <c r="C69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
@@ -4610,16 +4462,16 @@
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="F70" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -4633,16 +4485,16 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
@@ -4656,16 +4508,16 @@
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -4679,16 +4531,16 @@
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
@@ -4702,16 +4554,16 @@
         <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>13</v>
@@ -4725,16 +4577,16 @@
         <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
@@ -4748,16 +4600,16 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
@@ -4771,16 +4623,16 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F77" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>13</v>
@@ -4794,41 +4646,21 @@
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F78" s="2">
-        <v>45919</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F79" s="2"/>
-      <c r="G79" s="1" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="F80" s="2"/>
@@ -4841,7 +4673,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>18</v>
@@ -4864,7 +4696,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>18</v>
@@ -4887,7 +4719,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>18</v>
@@ -4910,7 +4742,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>18</v>
@@ -4933,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>18</v>
@@ -4956,7 +4788,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
@@ -4979,7 +4811,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
@@ -5002,7 +4834,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
@@ -5025,7 +4857,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>18</v>
@@ -5048,7 +4880,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>18</v>
@@ -5056,82 +4888,24 @@
       <c r="E90" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2">
+        <v>45919</v>
+      </c>
       <c r="G90" s="1" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F92" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F93" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F94" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
@@ -5141,16 +4915,16 @@
         <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
@@ -5164,16 +4938,16 @@
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="F96" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>13</v>
@@ -5187,16 +4961,16 @@
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>13</v>
@@ -5210,16 +4984,16 @@
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>13</v>
@@ -5233,16 +5007,16 @@
         <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>13</v>
@@ -5256,16 +5030,16 @@
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>13</v>
@@ -5279,24 +5053,66 @@
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45912</v>
+      </c>
       <c r="G101" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="F102" s="2"/>
+      <c r="A102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="F103" s="2"/>
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
@@ -5306,85 +5122,45 @@
         <v>16</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="F104" s="2">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F105" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F106" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" s="6" customFormat="1">
+      <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="F107" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
@@ -5395,19 +5171,19 @@
         <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>13</v>
@@ -5418,19 +5194,19 @@
         <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F109" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>13</v>
@@ -5441,65 +5217,45 @@
         <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F110" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F111" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="111" spans="1:7" s="4" customFormat="1">
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>13</v>
@@ -5510,54 +5266,134 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="F114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="F115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="F116" s="2"/>
+      <c r="A116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="F117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>13</v>
@@ -5568,19 +5404,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>13</v>
@@ -5591,19 +5427,19 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>13</v>
@@ -5614,19 +5450,19 @@
         <v>2</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>13</v>
@@ -5637,22 +5473,16 @@
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F122" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5660,22 +5490,16 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F123" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5683,19 +5507,19 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>13</v>
@@ -5706,19 +5530,19 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F125" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>13</v>
@@ -5729,19 +5553,19 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F126" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>13</v>
@@ -5752,124 +5576,131 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="F127" s="2">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:7" s="6" customFormat="1">
-      <c r="F129" s="7"/>
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F131" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E131" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F132" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F133" s="2">
+        <v>89</v>
+      </c>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F134" s="2">
         <v>45898</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="4" customFormat="1">
-      <c r="F134" s="5"/>
+      <c r="G134" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
@@ -5879,13 +5710,13 @@
         <v>59</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F135" s="2">
         <v>45898</v>
@@ -5902,13 +5733,13 @@
         <v>59</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F136" s="2">
         <v>45898</v>
@@ -5925,43 +5756,18 @@
         <v>59</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F137" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F138" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
@@ -5971,43 +5777,23 @@
         <v>59</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="F139" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
@@ -6017,16 +5803,16 @@
         <v>59</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F141" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>13</v>
@@ -6040,16 +5826,16 @@
         <v>59</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F142" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>13</v>
@@ -6063,16 +5849,16 @@
         <v>59</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F143" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>13</v>
@@ -6086,16 +5872,16 @@
         <v>59</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>13</v>
@@ -6109,13 +5895,19 @@
         <v>59</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>60</v>
+        <v>103</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6126,37 +5918,21 @@
         <v>59</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F147" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1" t="s">
@@ -6166,43 +5942,23 @@
         <v>59</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="F148" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F149" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
@@ -6212,16 +5968,16 @@
         <v>59</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F150" s="2">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>13</v>
@@ -6235,13 +5991,13 @@
         <v>59</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F151" s="2">
         <v>45911</v>
@@ -6258,13 +6014,13 @@
         <v>59</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F152" s="2">
         <v>45911</v>
@@ -6274,7 +6030,27 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="F153" s="2"/>
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
@@ -6284,32 +6060,43 @@
         <v>59</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F154" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F155" s="2"/>
+      <c r="G155" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:7">
@@ -6320,16 +6107,16 @@
         <v>59</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F157" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>13</v>
@@ -6343,16 +6130,16 @@
         <v>59</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F158" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>13</v>
@@ -6366,16 +6153,16 @@
         <v>59</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F159" s="2">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>13</v>
@@ -6389,20 +6176,45 @@
         <v>59</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
@@ -6410,13 +6222,13 @@
         <v>59</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F162" s="2">
         <v>45919</v>
@@ -6425,10 +6237,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -6436,22 +6248,22 @@
         <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F164" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -6459,22 +6271,22 @@
         <v>59</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F165" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -6482,22 +6294,22 @@
         <v>59</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F166" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -6505,22 +6317,22 @@
         <v>59</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F167" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -6528,22 +6340,22 @@
         <v>59</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F168" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
         <v>2</v>
       </c>
@@ -6551,23 +6363,45 @@
         <v>59</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F169" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F169" s="2">
+        <v>45912</v>
+      </c>
       <c r="G169" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F170" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
@@ -6575,25 +6409,48 @@
         <v>59</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="F171" s="2">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H171" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F172" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
         <v>2</v>
       </c>
@@ -6601,22 +6458,17 @@
         <v>59</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F173" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
@@ -6624,82 +6476,43 @@
         <v>59</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F174" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F175" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F176" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F177" s="2">
         <v>45911</v>
@@ -6713,43 +6526,65 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F178" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="F178" s="2">
+        <v>45911</v>
+      </c>
       <c r="G178" s="1" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="F179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F179" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F180" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>13</v>
@@ -6760,19 +6595,19 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F181" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>13</v>
@@ -6783,65 +6618,51 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F182" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F183" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="F184" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>13</v>
@@ -6852,45 +6673,65 @@
         <v>2</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F185" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="F186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F187" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>13</v>
@@ -6901,19 +6742,19 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F188" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>13</v>
@@ -6924,19 +6765,19 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F189" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>13</v>
@@ -6947,19 +6788,19 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F190" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>13</v>
@@ -6970,19 +6811,19 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F191" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>13</v>
@@ -6993,136 +6834,139 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F192" s="2">
-        <v>45912</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F192" s="2"/>
       <c r="G192" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F193" s="2">
-        <v>45912</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F193" s="2"/>
       <c r="G193" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F194" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H194" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F195" s="2">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:7">
       <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="F196" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="F197" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:7">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7131,12 +6975,12 @@
       <c r="F199" s="5"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>12</v>
@@ -7145,21 +6989,21 @@
         <v>18</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="F200" s="2">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:7">
       <c r="A201" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
@@ -7168,44 +7012,24 @@
         <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F201" s="2">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
-      <c r="A202" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F202" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+    <row r="202" spans="1:7">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>12</v>
@@ -7214,21 +7038,21 @@
         <v>19</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="F203" s="2">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:7">
       <c r="A204" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>12</v>
@@ -7237,21 +7061,21 @@
         <v>19</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="F204" s="2">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:7">
       <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>12</v>
@@ -7260,99 +7084,59 @@
         <v>19</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F205" s="2">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F207" s="2">
+    <row r="206" spans="1:7">
+      <c r="A206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F206" s="2">
         <v>45917</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F208" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G206" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F209" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>12</v>
@@ -7361,99 +7145,69 @@
         <v>18</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F210" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F211" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F212" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F213" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F214" s="2">
         <v>45917</v>
@@ -7467,61 +7221,45 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F215" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="F215" s="2">
+        <v>45917</v>
+      </c>
       <c r="G215" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="F216" s="2"/>
-      <c r="G216" s="1" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F217" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>13</v>
@@ -7532,318 +7270,300 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F218" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F219" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="F220" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="F221" s="2"/>
+      <c r="A221" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F221" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="4"/>
+      <c r="A222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F223" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F224" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="F225" s="2"/>
+      <c r="A225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F225" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F226" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F227" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F228" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F229" s="2">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="F230" s="2"/>
+      <c r="A230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F230" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="4"/>
+      <c r="A231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F231" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F233" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="F234" s="2"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="4"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F235" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="F235" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F236" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="F236" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="F237" s="2">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>13</v>
@@ -7854,45 +7574,65 @@
         <v>2</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="F238" s="2">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="F239" s="2"/>
+      <c r="A239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F239" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="F240" s="2">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>13</v>
@@ -7903,45 +7643,65 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F241" s="2">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="F242" s="2"/>
+      <c r="A242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F242" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F243" s="2">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>13</v>
@@ -7952,19 +7712,19 @@
         <v>2</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="F244" s="2">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>13</v>
@@ -7975,43 +7735,65 @@
         <v>2</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F245" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="F245" s="2">
+        <v>45924</v>
+      </c>
       <c r="G245" s="1" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="F246" s="2"/>
+      <c r="A246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F246" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>159</v>
+      <c r="E247" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="F247" s="2">
-        <v>45919</v>
+        <v>45924</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>13</v>
@@ -8022,480 +7804,554 @@
         <v>2</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>160</v>
+      <c r="E248" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="F248" s="2">
-        <v>45919</v>
+        <v>45925</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="F249" s="2"/>
+      <c r="A249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F249" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="250" spans="1:7">
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="F251" s="2"/>
+      <c r="A251" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F251" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F252" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G252" s="1" t="s">
+      <c r="A252" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F252" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G252" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F253" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G253" s="1" t="s">
+      <c r="A253" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F253" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G253" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F254" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G254" s="1" t="s">
+      <c r="A254" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F254" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G254" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="F255" s="2"/>
+      <c r="A255" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F255" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="F256" s="2"/>
+      <c r="A256" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F256" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="4"/>
+      <c r="A257" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F257" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F258" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G258" s="1" t="s">
+      <c r="A258" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F258" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G258" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F259" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F260" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G260" s="1" t="s">
+      <c r="A260" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F260" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G260" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F261" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G261" s="1" t="s">
+      <c r="A261" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F261" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G261" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F262" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G262" s="1" t="s">
+      <c r="A262" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F262" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G262" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F263" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G263" s="1" t="s">
+      <c r="A263" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F263" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G263" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F264" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G264" s="1" t="s">
+      <c r="A264" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F264" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G264" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F265" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G265" s="1" t="s">
+      <c r="A265" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F265" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G265" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F266" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F267" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G267" s="1" t="s">
+      <c r="A267" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F267" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G267" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F268" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G268" s="1" t="s">
+      <c r="A268" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F268" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G268" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E269" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F269" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G269" s="1" t="s">
+      <c r="A269" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F269" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G269" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E270" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F270" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G270" s="1" t="s">
+      <c r="A270" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F270" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G270" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F271" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G271" s="1" t="s">
+      <c r="A271" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F271" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G271" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E272" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F272" s="2">
+      <c r="A272" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F272" s="12">
         <v>45926</v>
       </c>
-      <c r="G272" s="1" t="s">
+      <c r="G272" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="F273" s="2"/>
+      <c r="A273" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F273" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B274" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E274" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E274" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="F274" s="12">
         <v>45926</v>
@@ -8505,282 +8361,199 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B275" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F275" s="12">
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C278" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F281" s="2">
         <v>45926</v>
       </c>
-      <c r="G275" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C276" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E276" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F276" s="12">
+      <c r="G281" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F282" s="2">
         <v>45926</v>
       </c>
-      <c r="G276" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E277" s="11" t="s">
+      <c r="G282" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F283" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F284" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F277" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G277" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B278" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D278" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F278" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G278" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C279" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E279" s="11" t="s">
+      <c r="C286" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F279" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G279" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B280" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D280" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E280" s="11" t="s">
+      <c r="D286" s="14"/>
+      <c r="E286" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F280" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G280" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B281" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E281" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F281" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G281" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="F282" s="2"/>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B283" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E283" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F283" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G283" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="F284" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G284" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B285" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E285" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F285" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G285" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B286" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C286" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D286" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F286" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G286" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B287" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C287" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E287" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F287" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G287" s="11" t="s">
-        <v>13</v>
+      <c r="F286" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G286" s="14" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8788,45 +8561,65 @@
         <v>2</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="F288" s="12">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="G288" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="F289" s="2"/>
+      <c r="A289" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F289" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="F290" s="12">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="G290" s="11" t="s">
         <v>13</v>
@@ -8837,19 +8630,19 @@
         <v>2</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E291" s="11" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="F291" s="12">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="G291" s="11" t="s">
         <v>13</v>
@@ -8860,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>12</v>
@@ -8869,445 +8662,18 @@
         <v>18</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="F292" s="12">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B293" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D293" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F293" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G293" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B294" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C294" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E294" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F294" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G294" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C295" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F295" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G295" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B296" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C296" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D296" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E296" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F296" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G296" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B297" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C297" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D297" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E297" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F297" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G297" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="13"/>
-      <c r="B298" s="13"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
-      <c r="F298" s="2"/>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B299" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C299" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D299" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F299" s="2"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B300" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D300" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F300" s="2"/>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B301" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C301" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D301" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F301" s="2"/>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B302" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C302" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D302" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F302" s="2"/>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B303" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D303" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F303" s="2"/>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F304" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E305" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F305" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F306" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F307" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D309" s="14"/>
-      <c r="E309" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F309" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G309" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D311" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E311" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F311" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G311" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E312" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F312" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G312" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B313" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D313" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E313" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F313" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G313" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B314" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C314" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D314" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E314" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F314" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G314" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B315" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C315" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E315" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F315" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G315" s="11" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9494,7 +8860,7 @@
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>86</v>
@@ -9502,12 +8868,12 @@
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>86</v>
@@ -9515,7 +8881,7 @@
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>86</v>
@@ -9523,7 +8889,7 @@
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>86</v>
@@ -9531,7 +8897,7 @@
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="9" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>86</v>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB5B60D-65F4-4700-98EF-E09606C5331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5057A55E-4F41-4FAF-A6FD-B2F492B24A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="236">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1422,16 +1422,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>修正済</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>売上送信後は取消不可になる？</t>
     <rPh sb="0" eb="2">
       <t>ウリアゲ</t>
@@ -1834,16 +1824,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>保留、再現できない</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>再現不可</t>
     <rPh sb="0" eb="2">
       <t>サイゲン</t>
@@ -2607,6 +2587,21 @@
     <rPh sb="0" eb="2">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理未了タイムアウトすると  DB: transactions が更新される。状態は "unkown" 。</t>
+    <rPh sb="0" eb="4">
+      <t>ショリミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http 要求を送信する（WAON）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WAON, suica だけ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2716,7 +2711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2730,8 +2725,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3017,10 +3013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3091,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -3212,7 +3208,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -3235,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" s="2">
         <v>45926</v>
@@ -3609,7 +3605,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F29" s="2">
         <v>45919</v>
@@ -3632,7 +3628,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F30" s="2">
         <v>45919</v>
@@ -3977,7 +3973,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>18</v>
@@ -4000,7 +3996,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -4023,7 +4019,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>18</v>
@@ -4046,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>18</v>
@@ -4069,7 +4065,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -4092,7 +4088,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -4115,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
@@ -4138,7 +4134,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
@@ -4161,7 +4157,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>18</v>
@@ -4184,7 +4180,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>18</v>
@@ -4194,7 +4190,7 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4208,7 +4204,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>18</v>
@@ -4231,7 +4227,7 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>18</v>
@@ -4254,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>18</v>
@@ -4277,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>18</v>
@@ -4300,7 +4296,7 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>18</v>
@@ -4323,7 +4319,7 @@
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -4346,7 +4342,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
@@ -4369,7 +4365,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
@@ -4392,7 +4388,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>18</v>
@@ -4415,7 +4411,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>18</v>
@@ -4425,7 +4421,7 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4673,7 +4669,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>18</v>
@@ -4696,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>18</v>
@@ -4719,7 +4715,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>18</v>
@@ -4742,7 +4738,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>18</v>
@@ -4765,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>18</v>
@@ -4788,7 +4784,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>19</v>
@@ -4811,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
@@ -4834,7 +4830,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>19</v>
@@ -4857,16 +4853,16 @@
         <v>16</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F89" s="2">
-        <v>45919</v>
+        <v>45930</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>13</v>
@@ -4880,13 +4876,13 @@
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2">
         <v>45919</v>
@@ -4896,16 +4892,76 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="F91" s="2"/>
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="F93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="F94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
@@ -4915,16 +4971,16 @@
         <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F95" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
@@ -4938,16 +4994,16 @@
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F96" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>13</v>
@@ -4961,16 +5017,16 @@
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>13</v>
@@ -4984,16 +5040,16 @@
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>13</v>
@@ -5007,16 +5063,16 @@
         <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>13</v>
@@ -5030,16 +5086,16 @@
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>13</v>
@@ -5053,16 +5109,16 @@
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>113</v>
+      <c r="E101" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F101" s="2">
-        <v>45912</v>
+        <v>45930</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>13</v>
@@ -5076,16 +5132,16 @@
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>13</v>
@@ -5099,165 +5155,205 @@
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="14" customFormat="1">
+      <c r="F104" s="15"/>
+    </row>
+    <row r="105" spans="1:7" s="14" customFormat="1">
+      <c r="A105" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F103" s="2">
+      <c r="D105" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="15">
         <v>45912</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="G105" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="14" customFormat="1">
+      <c r="A106" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C106" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F104" s="2">
+      <c r="D106" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="15">
         <v>45912</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" s="6" customFormat="1">
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F108" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F110" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1">
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F112" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="G106" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="14" customFormat="1">
+      <c r="A107" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="15">
+        <v>45912</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="14" customFormat="1">
+      <c r="A108" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" s="15">
+        <v>45912</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="14" customFormat="1">
+      <c r="A109" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="15">
+        <v>45912</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="14" customFormat="1">
+      <c r="A110" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F110" s="15">
+        <v>45912</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="14" customFormat="1">
+      <c r="A111" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="15">
+        <v>45912</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="14" customFormat="1">
+      <c r="A112" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F112" s="15">
+        <v>45912</v>
+      </c>
+      <c r="G112" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5266,19 +5362,19 @@
         <v>2</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="F113" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>13</v>
@@ -5289,85 +5385,51 @@
         <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F115" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2">
         <v>45898</v>
@@ -5381,16 +5443,16 @@
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2">
         <v>45898</v>
@@ -5404,7 +5466,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
@@ -5413,7 +5475,7 @@
         <v>19</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F119" s="2">
         <v>45898</v>
@@ -5427,7 +5489,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
@@ -5436,7 +5498,7 @@
         <v>19</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F120" s="2">
         <v>45898</v>
@@ -5446,27 +5508,13 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
@@ -5479,10 +5527,16 @@
         <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="F122" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5496,10 +5550,16 @@
         <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="F123" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5516,7 +5576,7 @@
         <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2">
         <v>45898</v>
@@ -5539,7 +5599,7 @@
         <v>19</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F125" s="2">
         <v>45898</v>
@@ -5562,7 +5622,7 @@
         <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F126" s="2">
         <v>45898</v>
@@ -5585,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F127" s="2">
         <v>45898</v>
@@ -5608,10 +5668,10 @@
         <v>19</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F128" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
@@ -5631,17 +5691,37 @@
         <v>19</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F129" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="F130" s="2"/>
+      <c r="A130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
@@ -5653,13 +5733,35 @@
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F131" s="2"/>
+      <c r="D131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F131" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="F132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
@@ -5669,15 +5771,14 @@
         <v>59</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
@@ -5687,13 +5788,13 @@
         <v>59</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2">
         <v>45898</v>
@@ -5710,13 +5811,13 @@
         <v>59</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F135" s="2">
         <v>45898</v>
@@ -5733,13 +5834,13 @@
         <v>59</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2">
         <v>45898</v>
@@ -5756,18 +5857,43 @@
         <v>59</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F137" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="F138" s="2"/>
+      <c r="A138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
@@ -5777,16 +5903,16 @@
         <v>59</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="F139" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>13</v>
@@ -5803,43 +5929,15 @@
         <v>59</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F141" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
@@ -5849,20 +5947,15 @@
         <v>59</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F143" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -5872,16 +5965,16 @@
         <v>59</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F144" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>13</v>
@@ -5895,16 +5988,16 @@
         <v>59</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F145" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>13</v>
@@ -5918,70 +6011,67 @@
         <v>59</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F146" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45898</v>
+      </c>
       <c r="G146" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F148" s="2">
+      <c r="C149" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F149" s="2">
         <v>45919</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="F149" s="2"/>
+      <c r="G149" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F150" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
@@ -5991,13 +6081,13 @@
         <v>59</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F151" s="2">
         <v>45911</v>
@@ -6014,13 +6104,13 @@
         <v>59</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F152" s="2">
         <v>45911</v>
@@ -6037,13 +6127,13 @@
         <v>59</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F153" s="2">
         <v>45911</v>
@@ -6060,13 +6150,13 @@
         <v>59</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F154" s="2">
         <v>45911</v>
@@ -6083,44 +6173,44 @@
         <v>59</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
       <c r="F156" s="2"/>
+      <c r="G156" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F157" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
@@ -6130,13 +6220,13 @@
         <v>59</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="F158" s="2">
         <v>45919</v>
@@ -6146,27 +6236,7 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F159" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
@@ -6176,16 +6246,16 @@
         <v>59</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F160" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>13</v>
@@ -6199,16 +6269,16 @@
         <v>59</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F161" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>13</v>
@@ -6222,23 +6292,43 @@
         <v>59</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="F163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F163" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
@@ -6248,16 +6338,16 @@
         <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F164" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>13</v>
@@ -6271,43 +6361,21 @@
         <v>59</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F165" s="2">
-        <v>45912</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F165" s="2"/>
       <c r="G165" s="1" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F166" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
@@ -6317,16 +6385,16 @@
         <v>59</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F167" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>13</v>
@@ -6340,16 +6408,16 @@
         <v>59</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F168" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
@@ -6363,16 +6431,16 @@
         <v>59</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F169" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>13</v>
@@ -6386,20 +6454,21 @@
         <v>59</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F170" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H170" s="8"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
@@ -6409,22 +6478,19 @@
         <v>59</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F171" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6435,37 +6501,22 @@
         <v>59</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F172" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:8">
@@ -6482,40 +6533,79 @@
         <v>18</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F174" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="F174" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="F175" s="2"/>
+      <c r="A175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F175" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="4"/>
+      <c r="A176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F176" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F177" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>13</v>
@@ -6526,19 +6616,19 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F178" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>13</v>
@@ -6549,19 +6639,19 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F179" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>13</v>
@@ -6572,19 +6662,19 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F180" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>13</v>
@@ -6595,19 +6685,19 @@
         <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F181" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>13</v>
@@ -6618,108 +6708,78 @@
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F182" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="4"/>
+      <c r="A183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F184" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F185" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F186" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>12</v>
@@ -6728,10 +6788,10 @@
         <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F187" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>13</v>
@@ -6742,19 +6802,19 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="F188" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>13</v>
@@ -6765,19 +6825,19 @@
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F189" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>13</v>
@@ -6788,19 +6848,19 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F190" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>13</v>
@@ -6811,19 +6871,19 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F191" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>13</v>
@@ -6834,58 +6894,48 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F192" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="F192" s="2">
+        <v>45911</v>
+      </c>
       <c r="G192" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F193" s="2"/>
-      <c r="G193" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="4"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F194" s="2">
         <v>45917</v>
@@ -6899,7 +6949,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>12</v>
@@ -6908,7 +6958,7 @@
         <v>18</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F195" s="2">
         <v>45917</v>
@@ -6922,16 +6972,16 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="F196" s="2">
         <v>45917</v>
@@ -6945,16 +6995,16 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F197" s="2">
         <v>45917</v>
@@ -6964,32 +7014,66 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="F198" s="2"/>
+      <c r="A198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F198" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="4"/>
+      <c r="A199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F199" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F200" s="2">
         <v>45917</v>
@@ -7003,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
@@ -7012,7 +7096,7 @@
         <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F201" s="2">
         <v>45917</v>
@@ -7022,29 +7106,45 @@
       </c>
     </row>
     <row r="202" spans="1:7">
+      <c r="A202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F202" s="2"/>
+      <c r="G202" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F203" s="2">
-        <v>45917</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F203" s="2"/>
       <c r="G203" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7052,16 +7152,16 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F204" s="2">
         <v>45917</v>
@@ -7075,16 +7175,16 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F205" s="2">
         <v>45917</v>
@@ -7098,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>12</v>
@@ -7107,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="F206" s="2">
         <v>45917</v>
@@ -7117,26 +7217,46 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="F207" s="2"/>
+      <c r="A207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F207" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="4"/>
+      <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="F209" s="2"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="4"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>12</v>
@@ -7145,34 +7265,39 @@
         <v>18</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F210" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="F211" s="2"/>
+      <c r="A211" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F211" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:7">
@@ -7180,7 +7305,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>12</v>
@@ -7189,16 +7314,21 @@
         <v>19</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F213" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="F213" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>12</v>
@@ -7207,7 +7337,7 @@
         <v>19</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F214" s="2">
         <v>45917</v>
@@ -7221,7 +7351,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>12</v>
@@ -7230,7 +7360,7 @@
         <v>19</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F215" s="2">
         <v>45917</v>
@@ -7240,53 +7370,39 @@
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="F216" s="2"/>
+      <c r="A216" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F216" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F217" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F218" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="4"/>
     </row>
     <row r="219" spans="1:7">
       <c r="F219" s="2"/>
@@ -7296,16 +7412,16 @@
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F220" s="2">
         <v>45919</v>
@@ -7315,50 +7431,42 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F221" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="F222" s="2"/>
-      <c r="G222" s="1" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="223" spans="1:7">
+      <c r="A223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:7">
@@ -7366,19 +7474,19 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F224" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>13</v>
@@ -7389,19 +7497,19 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F225" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>13</v>
@@ -7411,49 +7519,69 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="F227" s="2"/>
+      <c r="A227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F227" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="F228" s="2"/>
+      <c r="A228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F228" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F229" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F230" s="2">
         <v>45919</v>
@@ -7467,16 +7595,16 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F231" s="2">
         <v>45919</v>
@@ -7486,130 +7614,102 @@
       </c>
     </row>
     <row r="232" spans="1:7">
+      <c r="A232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="F232" s="2"/>
+      <c r="G232" s="1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="233" spans="1:7">
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="4"/>
+      <c r="A234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F234" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F235" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F236" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F237" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F238" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F239" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>13</v>
@@ -7620,19 +7720,19 @@
         <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F240" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>13</v>
@@ -7643,99 +7743,45 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="F241" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F242" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F243" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F244" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="4"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>12</v>
@@ -7744,7 +7790,7 @@
         <v>18</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F245" s="2">
         <v>45924</v>
@@ -7758,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>12</v>
@@ -7766,11 +7812,11 @@
       <c r="D246" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E246" s="10" t="s">
-        <v>195</v>
+      <c r="E246" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="F246" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>13</v>
@@ -7781,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>12</v>
@@ -7789,8 +7835,8 @@
       <c r="D247" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E247" s="10" t="s">
-        <v>194</v>
+      <c r="E247" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="F247" s="2">
         <v>45924</v>
@@ -7804,7 +7850,7 @@
         <v>2</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>12</v>
@@ -7812,11 +7858,11 @@
       <c r="D248" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="10" t="s">
-        <v>196</v>
+      <c r="E248" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="F248" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>13</v>
@@ -7827,7 +7873,7 @@
         <v>2</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>12</v>
@@ -7835,235 +7881,255 @@
       <c r="D249" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E249" s="10" t="s">
-        <v>197</v>
+      <c r="E249" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="F249" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F250" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F251" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F252" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F253" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F254" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F255" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F256" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F257" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F258" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F259" s="2">
         <v>45926</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="F250" s="2"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E251" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F251" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G251" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F252" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G252" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B253" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D253" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F253" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G253" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D254" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E254" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F254" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G254" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E255" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F255" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G255" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E256" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F256" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G256" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F257" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G257" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F258" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G258" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="F259" s="2"/>
+      <c r="G259" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E260" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F260" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G260" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>12</v>
@@ -8072,7 +8138,7 @@
         <v>18</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="F261" s="12">
         <v>45926</v>
@@ -8086,16 +8152,16 @@
         <v>2</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F262" s="12">
         <v>45926</v>
@@ -8109,16 +8175,16 @@
         <v>2</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F263" s="12">
         <v>45926</v>
@@ -8132,16 +8198,16 @@
         <v>2</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F264" s="12">
         <v>45926</v>
@@ -8155,16 +8221,16 @@
         <v>2</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F265" s="12">
         <v>45926</v>
@@ -8174,14 +8240,34 @@
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="F266" s="2"/>
+      <c r="A266" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F266" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>12</v>
@@ -8190,7 +8276,7 @@
         <v>18</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F267" s="12">
         <v>45926</v>
@@ -8204,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>12</v>
@@ -8213,7 +8299,7 @@
         <v>18</v>
       </c>
       <c r="E268" s="11" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F268" s="12">
         <v>45926</v>
@@ -8223,34 +8309,14 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E269" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="F269" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G269" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>12</v>
@@ -8259,7 +8325,7 @@
         <v>18</v>
       </c>
       <c r="E270" s="11" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F270" s="12">
         <v>45926</v>
@@ -8273,16 +8339,16 @@
         <v>2</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F271" s="12">
         <v>45926</v>
@@ -8296,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>12</v>
@@ -8305,7 +8371,7 @@
         <v>19</v>
       </c>
       <c r="E272" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F272" s="12">
         <v>45926</v>
@@ -8319,7 +8385,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>12</v>
@@ -8328,7 +8394,7 @@
         <v>19</v>
       </c>
       <c r="E273" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F273" s="12">
         <v>45926</v>
@@ -8342,7 +8408,7 @@
         <v>2</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>12</v>
@@ -8351,7 +8417,7 @@
         <v>19</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F274" s="12">
         <v>45926</v>
@@ -8361,313 +8427,518 @@
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="13"/>
-      <c r="B275" s="13"/>
-      <c r="C275" s="13"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
-      <c r="F275" s="2"/>
+      <c r="A275" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F275" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="A276" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B276" s="13" t="s">
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F277" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F278" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F279" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F280" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F281" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G281" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F282" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F283" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F284" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G284" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C276" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D276" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C277" s="13" t="s">
+      <c r="D287" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D277" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F277" s="2"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B278" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C278" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D278" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F278" s="2"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C279" s="13" t="s">
+      <c r="D290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F291" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F292" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D279" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F279" s="2"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D280" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F280" s="2"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F281" s="2">
+      <c r="F293" s="2">
         <v>45926</v>
       </c>
-      <c r="G281" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F282" s="2">
+      <c r="G293" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F294" s="2">
         <v>45926</v>
       </c>
-      <c r="G282" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F283" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F284" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B286" s="14" t="s">
+      <c r="G294" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C286" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D286" s="14"/>
-      <c r="E286" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F286" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G286" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B288" s="11" t="s">
+      <c r="F296" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G296" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F298" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E299" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C288" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E288" s="11" t="s">
+      <c r="F299" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G299" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E300" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F288" s="12">
+      <c r="F300" s="12">
         <v>45922</v>
       </c>
-      <c r="G288" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D289" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E289" s="11" t="s">
+      <c r="G300" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C301" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E301" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="F289" s="12">
+      <c r="F301" s="12">
         <v>45922</v>
       </c>
-      <c r="G289" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C290" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D290" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E290" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F290" s="12">
+      <c r="G301" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E302" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F302" s="12">
         <v>45922</v>
       </c>
-      <c r="G290" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C291" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F291" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G291" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B292" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C292" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F292" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G292" s="11" t="s">
+      <c r="G302" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8682,7 +8953,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8795,7 +9066,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="D13" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -8808,7 +9079,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -8821,7 +9092,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -8834,7 +9105,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="D16" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -8847,7 +9118,7 @@
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -8860,7 +9131,7 @@
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>86</v>
@@ -8868,12 +9139,15 @@
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>86</v>
@@ -8881,7 +9155,7 @@
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>86</v>
@@ -8889,7 +9163,7 @@
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>86</v>
@@ -8897,7 +9171,7 @@
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>86</v>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5057A55E-4F41-4FAF-A6FD-B2F492B24A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2706DB-E76F-491E-BE91-A2F435A9CBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="242">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2602,6 +2602,69 @@
   </si>
   <si>
     <t>WAON, suica だけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バックグラウンド機能</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動再開局</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイカイキョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規インストールする</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"アプリを自動で更新" はデフォルト true である。</t>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"…24時間以内に自動で再開局" はデフォルト true である。</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイキョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動更新</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2711,7 +2774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2726,8 +2789,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3013,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -5170,190 +5231,190 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="14" customFormat="1">
-      <c r="F104" s="15"/>
-    </row>
-    <row r="105" spans="1:7" s="14" customFormat="1">
-      <c r="A105" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="14" t="s">
+    <row r="104" spans="1:7">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="14" t="s">
+      <c r="D105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F105" s="15">
+      <c r="F105" s="2">
         <v>45912</v>
       </c>
-      <c r="G105" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="14" customFormat="1">
-      <c r="A106" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="14" t="s">
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E106" s="14" t="s">
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F106" s="15">
+      <c r="F106" s="2">
         <v>45912</v>
       </c>
-      <c r="G106" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="14" customFormat="1">
-      <c r="A107" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="14" t="s">
+      <c r="G106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="14" t="s">
+      <c r="D107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F107" s="15">
+      <c r="F107" s="2">
         <v>45912</v>
       </c>
-      <c r="G107" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="14" customFormat="1">
-      <c r="A108" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="14" t="s">
+      <c r="G107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="14" t="s">
+      <c r="D108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F108" s="15">
+      <c r="F108" s="2">
         <v>45912</v>
       </c>
-      <c r="G108" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="14" customFormat="1">
-      <c r="A109" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="14" t="s">
+      <c r="G108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="14" t="s">
+      <c r="D109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F109" s="15">
+      <c r="F109" s="2">
         <v>45912</v>
       </c>
-      <c r="G109" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="14" customFormat="1">
-      <c r="A110" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="14" t="s">
+      <c r="G109" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D110" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="14" t="s">
+      <c r="D110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F110" s="15">
+      <c r="F110" s="2">
         <v>45912</v>
       </c>
-      <c r="G110" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="14" customFormat="1">
-      <c r="A111" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="14" t="s">
+      <c r="G110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="14" t="s">
+      <c r="D111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="15">
+      <c r="F111" s="2">
         <v>45912</v>
       </c>
-      <c r="G111" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="14" customFormat="1">
-      <c r="A112" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="14" t="s">
+      <c r="G111" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="14" t="s">
+      <c r="D112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F112" s="2">
         <v>45912</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8939,6 +9000,52 @@
         <v>45922</v>
       </c>
       <c r="G302" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F305" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G305" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E306" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F306" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G306" s="11" t="s">
         <v>13</v>
       </c>
     </row>

--- a/terminal-api/testspec/temp.xlsx
+++ b/terminal-api/testspec/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2706DB-E76F-491E-BE91-A2F435A9CBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C2745-B9B4-4196-8B6E-3D3E54EB89D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3076,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A308" sqref="A308"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
